--- a/codebooks/codebook-meta-analyses-final-complete.xlsx
+++ b/codebooks/codebook-meta-analyses-final-complete.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CQ34"/>
+  <dimension ref="A1:CU34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,400 +435,420 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>software</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estimator</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>subgroup</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>pub</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>pubmet1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>pubmet2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>pubmet3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>pubmet4</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>pubfound</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>out</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>outsep</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>guidelines</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>depreport</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>depmeasure</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>hypo</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>eff.co</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cilb.co</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>ciub.co</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>tau2.co</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>eff.cc</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>cilb.cc</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ciub.cc</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>tau2.cc</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>disc.c</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>disccat.c</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>disc.cilb.c</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>disc.ciub.c</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>disccat.ci.c</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>disc.tau2.c</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>disccat.tau2.c</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>outeff1.c</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>outeff2.c</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>outeff3.c</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>outci1.c</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>outci2.c</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>outci3.c</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>outtau1.c</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>outtau2.c</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>outtau3.c</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>yop</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>yopse</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>yopsig</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>funnel</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>funnelse</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>funnelsig</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>bothyop</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>bothyopse</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>bothfunnel</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>bothfunnelse</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>bothyopsig</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>bothfunnelsig</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>cor</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>eff.so</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>cilb.so</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>ciub.so</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>tau2.so</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>pval.so</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>krep1</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>krep2</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>percent2</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>eff.sc</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>cilb.sc</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>ciub.sc</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>tau2.sc</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>disc.s</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>disccat.s</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>disc.cilb.s</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>disc.ciub.s</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>disccat.ci.s</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>disc.tau2.s</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>disccat.tau2.s</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>pval.sc</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>outeff1.s</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>outeff2.s</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>outeff3.s</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>outci1.s</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>outci2.s</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>outci3.s</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>outtau1.s</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>outtau2.s</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>outtau3.s</t>
         </is>
@@ -883,123 +903,184 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Funnel plot</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Egger's test</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Fail-safe N</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Outliers: Yes, but results only mentioned as a robustness test in passing without reporting results of outlier test. Mentions effect sizes are independent ("A total of 33 research reports yielding 57 independent effect sizes"). Separate analyses with published and unpublished effect sizes.</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP2">
+      <c r="AG2">
+        <v>0.1308719648457208</v>
+      </c>
+      <c r="AH2">
+        <v>-0.04505071148462991</v>
+      </c>
+      <c r="AI2">
+        <v>0.3067946411760715</v>
+      </c>
+      <c r="AJ2">
+        <v>0.369973131478965</v>
+      </c>
+      <c r="AK2">
+        <v>0.1406325855746536</v>
+      </c>
+      <c r="AL2">
+        <v>-0.04222420617661346</v>
+      </c>
+      <c r="AM2">
+        <v>0.3234893773259205</v>
+      </c>
+      <c r="AN2">
+        <v>0.4063837804309013</v>
+      </c>
+      <c r="AO2">
+        <v>-0.009760620728932745</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0.002826505308016453</v>
+      </c>
+      <c r="AR2">
+        <v>-0.01669473614984901</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>-0.0364106489519363</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
         <v>0.1562812525882797</v>
       </c>
-      <c r="BQ2">
+      <c r="BS2">
         <v>-0.2078952938704898</v>
       </c>
-      <c r="BR2">
+      <c r="BT2">
         <v>0.5204577990470491</v>
       </c>
-      <c r="BS2">
+      <c r="BU2">
         <v>0.6095238012022537</v>
       </c>
-      <c r="BT2">
+      <c r="BV2">
+        <v>0.4002969399016501</v>
+      </c>
+      <c r="BW2">
         <v>20</v>
       </c>
-      <c r="BU2">
+      <c r="BX2">
         <v>35.08771929824561</v>
       </c>
-      <c r="BV2">
+      <c r="BY2">
         <v>12</v>
       </c>
-      <c r="BW2">
+      <c r="BZ2">
         <v>60</v>
       </c>
-      <c r="BX2">
+      <c r="CA2">
         <v>0.1819052396079618</v>
       </c>
-      <c r="BY2">
+      <c r="CB2">
         <v>-0.2051571811196986</v>
       </c>
-      <c r="BZ2">
+      <c r="CC2">
         <v>0.5689676603356223</v>
       </c>
-      <c r="CA2">
+      <c r="CD2">
         <v>0.6987483621834335</v>
       </c>
-      <c r="CB2">
+      <c r="CE2">
         <v>-0.02562398701968216</v>
       </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
         <v>0.002738112750791222</v>
       </c>
-      <c r="CE2">
+      <c r="CH2">
         <v>-0.04850986128857315</v>
       </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
         <v>-0.08922456098117981</v>
       </c>
-      <c r="CH2">
-        <v>1</v>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>0.3569921206392634</v>
       </c>
     </row>
     <row r="3">
@@ -1051,27 +1132,27 @@
           <t>FE+RE</t>
         </is>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>Fail-safe N</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1079,95 +1160,156 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Mention of dependency includes: "Studies as a unit of analysis referred to individual experiments with different participants. Studies, thus, treat multiple experiments reported within a single article as separate studies if they involved different participants. Comparisons were also used as a unit of analysis. Analysis at the level of comparisons refers to counting each individual statistical comparison as an independent contribution." Separate analyses with published and unpublished effect sizes.</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP3">
+      <c r="AG3">
+        <v>-0.3761555053681238</v>
+      </c>
+      <c r="AH3">
+        <v>-0.5224208214452014</v>
+      </c>
+      <c r="AI3">
+        <v>-0.2298901892910461</v>
+      </c>
+      <c r="AJ3">
+        <v>0.4879821550182738</v>
+      </c>
+      <c r="AK3">
+        <v>-0.3879148132390465</v>
+      </c>
+      <c r="AL3">
+        <v>-0.5329299933321637</v>
+      </c>
+      <c r="AM3">
+        <v>-0.2428996331459294</v>
+      </c>
+      <c r="AN3">
+        <v>0.4789888463415034</v>
+      </c>
+      <c r="AO3">
+        <v>-0.01175930787092278</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>-0.01050917188696232</v>
+      </c>
+      <c r="AR3">
+        <v>-0.01300944385488323</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0.008993308676770451</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
         <v>-0.5333921041475275</v>
       </c>
-      <c r="BQ3">
+      <c r="BS3">
         <v>-0.9528701967886679</v>
       </c>
-      <c r="BR3">
+      <c r="BT3">
         <v>-0.113914011506387</v>
       </c>
-      <c r="BS3">
+      <c r="BU3">
         <v>0.7993012311439749</v>
       </c>
-      <c r="BT3">
+      <c r="BV3">
+        <v>0.0126949405517089</v>
+      </c>
+      <c r="BW3">
         <v>20</v>
       </c>
-      <c r="BU3">
+      <c r="BX3">
         <v>18.51851851851852</v>
       </c>
-      <c r="BV3">
+      <c r="BY3">
         <v>5</v>
       </c>
-      <c r="BW3">
+      <c r="BZ3">
         <v>25</v>
       </c>
-      <c r="BX3">
+      <c r="CA3">
         <v>-0.591452592831206</v>
       </c>
-      <c r="BY3">
+      <c r="CB3">
         <v>-0.9876099426278716</v>
       </c>
-      <c r="BZ3">
+      <c r="CC3">
         <v>-0.1952952430345404</v>
       </c>
-      <c r="CA3">
+      <c r="CD3">
         <v>0.7074266730134944</v>
       </c>
-      <c r="CB3">
+      <c r="CE3">
         <v>-0.05806048868367852</v>
       </c>
-      <c r="CC3">
-        <v>1</v>
-      </c>
-      <c r="CD3">
+      <c r="CF3">
+        <v>1</v>
+      </c>
+      <c r="CG3">
         <v>-0.0347397458392037</v>
       </c>
-      <c r="CE3">
+      <c r="CH3">
         <v>-0.08138123152815335</v>
       </c>
-      <c r="CF3">
-        <v>1</v>
-      </c>
-      <c r="CG3">
+      <c r="CI3">
+        <v>1</v>
+      </c>
+      <c r="CJ3">
         <v>0.09187455813048051</v>
       </c>
-      <c r="CH3">
-        <v>1</v>
+      <c r="CK3">
+        <v>1</v>
+      </c>
+      <c r="CL3">
+        <v>0.003431577123252183</v>
       </c>
     </row>
     <row r="4">
@@ -1216,27 +1358,27 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>MoM</t>
+        </is>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>Fail-safe N</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="U4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1244,15 +1386,19 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>0</v>
       </c>
@@ -1262,77 +1408,134 @@
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>Only published studies included.</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>Different, prediction is that target population (with brain injury) performs worse than controls.</t>
         </is>
       </c>
-      <c r="BP4">
+      <c r="AG4">
+        <v>1.138841145268317</v>
+      </c>
+      <c r="AH4">
+        <v>0.8459839581384021</v>
+      </c>
+      <c r="AI4">
+        <v>1.431698332398232</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1982719592802573</v>
+      </c>
+      <c r="AK4">
+        <v>1.13852916074954</v>
+      </c>
+      <c r="AL4">
+        <v>0.8462113097903368</v>
+      </c>
+      <c r="AM4">
+        <v>1.430847011708744</v>
+      </c>
+      <c r="AN4">
+        <v>0.1972168862320051</v>
+      </c>
+      <c r="AO4">
+        <v>0.0003119845187768977</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>-0.0002273516519346597</v>
+      </c>
+      <c r="AR4">
+        <v>0.0008513206894884551</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0.00105507304825217</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
         <v>1.059812890573553</v>
       </c>
-      <c r="BQ4">
+      <c r="BS4">
         <v>0.752443609315065</v>
       </c>
-      <c r="BR4">
+      <c r="BT4">
         <v>1.367182171832042</v>
       </c>
-      <c r="BS4">
+      <c r="BU4">
         <v>0.1853540446814108</v>
       </c>
-      <c r="BT4">
+      <c r="BV4">
+        <v>1.399299690886427e-011</v>
+      </c>
+      <c r="BW4">
         <v>11</v>
       </c>
-      <c r="BU4">
+      <c r="BX4">
         <v>84.61538461538461</v>
       </c>
-      <c r="BV4">
+      <c r="BY4">
         <v>10</v>
       </c>
-      <c r="BW4">
+      <c r="BZ4">
         <v>90.90909090909091</v>
       </c>
-      <c r="BX4">
+      <c r="CA4">
         <v>1.059522256259895</v>
       </c>
-      <c r="BY4">
+      <c r="CB4">
         <v>0.752845256048617</v>
       </c>
-      <c r="BZ4">
+      <c r="CC4">
         <v>1.366199256471172</v>
       </c>
-      <c r="CA4">
+      <c r="CD4">
         <v>0.1841503883564577</v>
       </c>
-      <c r="CB4">
+      <c r="CE4">
         <v>0.000290634313658833</v>
       </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
         <v>-0.0004016467335519192</v>
       </c>
-      <c r="CE4">
+      <c r="CH4">
         <v>0.0009829153608695851</v>
       </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
         <v>0.001203656324953173</v>
       </c>
-      <c r="CH4">
-        <v>0</v>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>1.275627383092645e-011</v>
       </c>
     </row>
     <row r="5">
@@ -1384,43 +1587,47 @@
           <t>FE+RE</t>
         </is>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>Funnel plot</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>Egger's test</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>Trim and fill</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
         <v>0</v>
       </c>
@@ -1428,79 +1635,136 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>1. ("Some studies allowed us to code several effect sizes. However, the effect sizes may be non-independent because they share several methodological features. Therefore, we applied Cooper’s (1998) shifting-units-of-analysis approach to handling non-independent effect sizes when conducting moderator analyses. Using this approach, we averaged over all the effects abstracted from a single study that shared the same study characteristics.")</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>Dependent effects only addressed in context of moderator analysis. Didn’t do supgroup analysis because small sample size. This is the finding of all included studies (including null results). MA states 272 but only reports 270 studies. Contacting authors for unpublished data.</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>Null. MA appears to predict only differences for subgroup analyes and null overall effect: "That is to say, the evolutionary perspective (like the sociocultural perspective) suggests that sex differences emerge in response to specific environmental inputs."</t>
         </is>
       </c>
-      <c r="BP5">
+      <c r="AG5">
+        <v>-0.0378147661581214</v>
+      </c>
+      <c r="AH5">
+        <v>-0.07916515081731992</v>
+      </c>
+      <c r="AI5">
+        <v>0.003535618501077129</v>
+      </c>
+      <c r="AJ5">
+        <v>0.0735038107090224</v>
+      </c>
+      <c r="AK5">
+        <v>-0.03410467598694522</v>
+      </c>
+      <c r="AL5">
+        <v>-0.07539153367154061</v>
+      </c>
+      <c r="AM5">
+        <v>0.007182181697650177</v>
+      </c>
+      <c r="AN5">
+        <v>0.07325562467400378</v>
+      </c>
+      <c r="AO5">
+        <v>0.003710090171176177</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0.003773617145779312</v>
+      </c>
+      <c r="AR5">
+        <v>-0.003646563196573048</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0.0002481860350186244</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
         <v>-0.08598258054543848</v>
       </c>
-      <c r="BQ5">
+      <c r="BS5">
         <v>-0.286664848352842</v>
       </c>
-      <c r="BR5">
+      <c r="BT5">
         <v>0.114699687261965</v>
       </c>
-      <c r="BS5">
+      <c r="BU5">
         <v>0.1667565195745302</v>
       </c>
-      <c r="BT5">
+      <c r="BV5">
+        <v>0.4010490572186145</v>
+      </c>
+      <c r="BW5">
         <v>21</v>
       </c>
-      <c r="BU5">
+      <c r="BX5">
         <v>7.777777777777778</v>
       </c>
-      <c r="BV5">
+      <c r="BY5">
         <v>14</v>
       </c>
-      <c r="BW5">
+      <c r="BZ5">
         <v>66.66666666666666</v>
       </c>
-      <c r="BX5">
+      <c r="CA5">
         <v>-0.04402486871470106</v>
       </c>
-      <c r="BY5">
+      <c r="CB5">
         <v>-0.2435853210225496</v>
       </c>
-      <c r="BZ5">
+      <c r="CC5">
         <v>0.1555355835931475</v>
       </c>
-      <c r="CA5">
+      <c r="CD5">
         <v>0.1655347618040023</v>
       </c>
-      <c r="CB5">
+      <c r="CE5">
         <v>0.04195771183073742</v>
       </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
         <v>0.04307952733029236</v>
       </c>
-      <c r="CE5">
+      <c r="CH5">
         <v>-0.04083589633118251</v>
       </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
         <v>0.001221757770527909</v>
       </c>
-      <c r="CH5">
-        <v>0</v>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0.6654608501828523</v>
       </c>
     </row>
     <row r="6">
@@ -1549,21 +1813,21 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1580,92 +1844,153 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>1 . ("Due to the fact that data from multiple outcome measures of the same clients are not independent, the data from outcome measures were aggregated to account for dependence using the methods described by Wampold et al. (1997).")</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>Contacting authors for unpublished data</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP6">
+      <c r="AG6">
+        <v>0.380982863271265</v>
+      </c>
+      <c r="AH6">
+        <v>0.2550105541512076</v>
+      </c>
+      <c r="AI6">
+        <v>0.5069551723913224</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0.4715265587122606</v>
+      </c>
+      <c r="AL6">
+        <v>0.3076658136423215</v>
+      </c>
+      <c r="AM6">
+        <v>0.6353873037821998</v>
+      </c>
+      <c r="AN6">
+        <v>0.04868268866027214</v>
+      </c>
+      <c r="AO6">
+        <v>-0.09054369544099566</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>-0.05265525949111394</v>
+      </c>
+      <c r="AR6">
+        <v>-0.1284321313908774</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>-0.04868268866027214</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
         <v>0.4676881072746098</v>
       </c>
-      <c r="BQ6">
+      <c r="BS6">
         <v>0.2921019840588931</v>
       </c>
-      <c r="BR6">
+      <c r="BT6">
         <v>0.6432742304903265</v>
       </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>1.784160683338778e-007</v>
+      </c>
+      <c r="BW6">
         <v>11</v>
       </c>
-      <c r="BU6">
+      <c r="BX6">
         <v>52.38095238095239</v>
       </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
         <v>0.6122811534833517</v>
       </c>
-      <c r="BY6">
+      <c r="CB6">
         <v>0.3506039676835914</v>
       </c>
-      <c r="BZ6">
+      <c r="CC6">
         <v>0.873958339283112</v>
       </c>
-      <c r="CA6">
+      <c r="CD6">
         <v>0.09177042906709461</v>
       </c>
-      <c r="CB6">
+      <c r="CE6">
         <v>-0.1445930462087419</v>
       </c>
-      <c r="CC6">
-        <v>1</v>
-      </c>
-      <c r="CD6">
+      <c r="CF6">
+        <v>1</v>
+      </c>
+      <c r="CG6">
         <v>-0.05850198362469827</v>
       </c>
-      <c r="CE6">
+      <c r="CH6">
         <v>-0.2306841087927855</v>
       </c>
-      <c r="CF6">
+      <c r="CI6">
         <v>2</v>
       </c>
-      <c r="CG6">
+      <c r="CJ6">
         <v>-0.09177042906709461</v>
       </c>
-      <c r="CH6">
-        <v>1</v>
+      <c r="CK6">
+        <v>1</v>
+      </c>
+      <c r="CL6">
+        <v>4.518397989946509e-006</v>
       </c>
     </row>
     <row r="7">
@@ -1717,21 +2042,21 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1748,11 +2073,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1761,79 +2090,136 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>Mentions independent correlations: "This resulted in a final database of 40 studies from which 50 independent samples containing 224 independent correlations were drawn". Contacting authors for unpublished data.</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP7">
+      <c r="AG7">
+        <v>0.3570538375354305</v>
+      </c>
+      <c r="AH7">
+        <v>0.2684187439617177</v>
+      </c>
+      <c r="AI7">
+        <v>0.4456889311091433</v>
+      </c>
+      <c r="AJ7">
+        <v>0.03734754254240225</v>
+      </c>
+      <c r="AK7">
+        <v>0.3865868431920451</v>
+      </c>
+      <c r="AL7">
+        <v>0.3007797803981077</v>
+      </c>
+      <c r="AM7">
+        <v>0.4723939059859824</v>
+      </c>
+      <c r="AN7">
+        <v>0.03499125634488368</v>
+      </c>
+      <c r="AO7">
+        <v>-0.0295330056566146</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>-0.03236103643639005</v>
+      </c>
+      <c r="AR7">
+        <v>-0.02670497487683915</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0.002356286197518577</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
         <v>0.3197779875458057</v>
       </c>
-      <c r="BQ7">
+      <c r="BS7">
         <v>0.2485994316421966</v>
       </c>
-      <c r="BR7">
+      <c r="BT7">
         <v>0.3909565434494148</v>
       </c>
-      <c r="BS7">
+      <c r="BU7">
         <v>0.009005061714293506</v>
       </c>
-      <c r="BT7">
+      <c r="BV7">
+        <v>1.304245965562579e-018</v>
+      </c>
+      <c r="BW7">
         <v>11</v>
       </c>
-      <c r="BU7">
+      <c r="BX7">
         <v>52.38095238095239</v>
       </c>
-      <c r="BV7">
-        <v>1</v>
-      </c>
-      <c r="BW7">
+      <c r="BY7">
+        <v>1</v>
+      </c>
+      <c r="BZ7">
         <v>9.090909090909092</v>
       </c>
-      <c r="BX7">
+      <c r="CA7">
         <v>0.3792131763232198</v>
       </c>
-      <c r="BY7">
+      <c r="CB7">
         <v>0.2939602033070982</v>
       </c>
-      <c r="BZ7">
+      <c r="CC7">
         <v>0.4644661493393415</v>
       </c>
-      <c r="CA7">
+      <c r="CD7">
         <v>0.01578737761981627</v>
       </c>
-      <c r="CB7">
+      <c r="CE7">
         <v>-0.05943518877741416</v>
       </c>
-      <c r="CC7">
-        <v>1</v>
-      </c>
-      <c r="CD7">
+      <c r="CF7">
+        <v>1</v>
+      </c>
+      <c r="CG7">
         <v>-0.0453607716649016</v>
       </c>
-      <c r="CE7">
+      <c r="CH7">
         <v>-0.07350960588992672</v>
       </c>
-      <c r="CF7">
-        <v>1</v>
-      </c>
-      <c r="CG7">
+      <c r="CI7">
+        <v>1</v>
+      </c>
+      <c r="CJ7">
         <v>-0.00678231590552276</v>
       </c>
-      <c r="CH7">
-        <v>0</v>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>2.829024767809491e-018</v>
       </c>
     </row>
     <row r="8">
@@ -1875,133 +2261,194 @@
         </is>
       </c>
       <c r="J8">
-        <v>0.2508674598322933</v>
+        <v>0.2508674598322934</v>
       </c>
       <c r="K8">
+        <v>0.2690001662231429</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Mentions independent correlations: "Each of the correlations was drawn from independent samples, meaning each Asian, Black, Hispanic, and White sample contributed only one correlation coefficient to any meta-analysis.". Contacting authors for unpublished data. MA states 392 but only reports 283 studies.</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Same</t>
+        </is>
+      </c>
+      <c r="AG8">
         <v>0.2690001662231433</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Mentions independent correlations: "Each of the correlations was drawn from independent samples, meaning each Asian, Black, Hispanic, and White sample contributed only one correlation coefficient to any meta-analysis.". Contacting authors for unpublished data. MA states 392 but only reports 283 studies.</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Same</t>
-        </is>
-      </c>
-      <c r="BP8">
+      <c r="AH8">
+        <v>0.2532018763299782</v>
+      </c>
+      <c r="AI8">
+        <v>0.2847984561163084</v>
+      </c>
+      <c r="AJ8">
+        <v>0.009976761131302253</v>
+      </c>
+      <c r="AK8">
+        <v>0.2692105839605685</v>
+      </c>
+      <c r="AL8">
+        <v>0.25336425782955</v>
+      </c>
+      <c r="AM8">
+        <v>0.2850569100915871</v>
+      </c>
+      <c r="AN8">
+        <v>0.01007298982580088</v>
+      </c>
+      <c r="AO8">
+        <v>-0.0002104177374252503</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>-0.0001623814995718176</v>
+      </c>
+      <c r="AR8">
+        <v>-0.000258453975278683</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>-9.62286944986273e-005</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
         <v>0.3288324322673673</v>
       </c>
-      <c r="BQ8">
+      <c r="BS8">
         <v>0.2680325690446915</v>
       </c>
-      <c r="BR8">
+      <c r="BT8">
         <v>0.389632295490043</v>
       </c>
-      <c r="BS8">
+      <c r="BU8">
         <v>0.01325914809525594</v>
       </c>
-      <c r="BT8">
+      <c r="BV8">
+        <v>2.968726440173775e-026</v>
+      </c>
+      <c r="BW8">
         <v>23</v>
       </c>
-      <c r="BU8">
+      <c r="BX8">
         <v>8.12720848056537</v>
       </c>
-      <c r="BV8">
+      <c r="BY8">
         <v>21</v>
       </c>
-      <c r="BW8">
+      <c r="BZ8">
         <v>91.30434782608695</v>
       </c>
-      <c r="BX8">
+      <c r="CA8">
         <v>0.331020105378539</v>
       </c>
-      <c r="BY8">
+      <c r="CB8">
         <v>0.2689195118239687</v>
       </c>
-      <c r="BZ8">
+      <c r="CC8">
         <v>0.3931206989331093</v>
       </c>
-      <c r="CA8">
+      <c r="CD8">
         <v>0.01410319731962555</v>
       </c>
-      <c r="CB8">
+      <c r="CE8">
         <v>-0.00218767311117174</v>
       </c>
-      <c r="CC8">
-        <v>0</v>
-      </c>
-      <c r="CD8">
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
         <v>-0.0008869427792771445</v>
       </c>
-      <c r="CE8">
+      <c r="CH8">
         <v>-0.003488403443066335</v>
       </c>
-      <c r="CF8">
-        <v>0</v>
-      </c>
-      <c r="CG8">
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
         <v>-0.000844049224369604</v>
       </c>
-      <c r="CH8">
-        <v>0</v>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>1.506548913480263e-025</v>
       </c>
     </row>
     <row r="9">
@@ -2050,21 +2497,21 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -2081,92 +2528,153 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1. ("We also combined results of multiple reports using the same sample to meet statistical assumptions of independence (see Card, in press).")</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>Authors state in text different effect size and CI (.05, CI = -.07 - .16) compared to table (.04, CI = -.06 - .14). Outlier: seperate analysis performed but "available upon request". Authors report exclusion or inclusion of outliers yielded generally comparable results.</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP9">
+      <c r="AG9">
+        <v>0.04200268229822748</v>
+      </c>
+      <c r="AH9">
+        <v>-0.05418890388539102</v>
+      </c>
+      <c r="AI9">
+        <v>0.137421860683203</v>
+      </c>
+      <c r="AJ9">
+        <v>0.018553844565855</v>
+      </c>
+      <c r="AK9">
+        <v>0.04512099868199886</v>
+      </c>
+      <c r="AL9">
+        <v>-0.02159748512087786</v>
+      </c>
+      <c r="AM9">
+        <v>0.1114393776009911</v>
+      </c>
+      <c r="AN9">
+        <v>0.007300692454459717</v>
+      </c>
+      <c r="AO9">
+        <v>-0.003118316383771386</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0.03259141876451317</v>
+      </c>
+      <c r="AR9">
+        <v>0.02598248308221188</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>0.01125315211139528</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
         <v>-0.003031330272083436</v>
       </c>
-      <c r="BQ9">
+      <c r="BS9">
         <v>-0.0407912403632332</v>
       </c>
-      <c r="BR9">
+      <c r="BT9">
         <v>0.0347372260848092</v>
       </c>
-      <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0.8750476011023477</v>
+      </c>
+      <c r="BW9">
         <v>9</v>
       </c>
-      <c r="BU9">
+      <c r="BX9">
         <v>81.81818181818183</v>
       </c>
-      <c r="BV9">
+      <c r="BY9">
         <v>5</v>
       </c>
-      <c r="BW9">
+      <c r="BZ9">
         <v>55.55555555555556</v>
       </c>
-      <c r="BX9">
+      <c r="CA9">
         <v>0.004021658260703746</v>
       </c>
-      <c r="BY9">
+      <c r="CB9">
         <v>-0.008904514897350351</v>
       </c>
-      <c r="BZ9">
+      <c r="CC9">
         <v>0.01694648761153583</v>
       </c>
-      <c r="CA9">
-        <v>0</v>
-      </c>
-      <c r="CB9">
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
         <v>-0.0009903279886203098</v>
       </c>
-      <c r="CC9">
-        <v>0</v>
-      </c>
-      <c r="CD9">
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
         <v>0.03188672546588285</v>
       </c>
-      <c r="CE9">
+      <c r="CH9">
         <v>0.01779073847327337</v>
       </c>
-      <c r="CF9">
-        <v>1</v>
-      </c>
-      <c r="CG9">
-        <v>0</v>
-      </c>
-      <c r="CH9">
-        <v>0</v>
+      <c r="CI9">
+        <v>1</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0.5420040031334104</v>
       </c>
     </row>
     <row r="10">
@@ -2190,7 +2698,7 @@
         <v>3.81</v>
       </c>
       <c r="F10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2204,35 +2712,35 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="J10">
-        <v>0.2092331200381806</v>
+        <v>0.1715770432494655</v>
       </c>
       <c r="K10">
-        <v>0.2092331200381806</v>
+        <v>0.2092402966456897</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -2249,11 +2757,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2262,73 +2774,124 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1. ("Because the study is the unit of analysis, if a study used multiple measures of one or more human capital measures or one or more performance measures and reported correlations separately, the correlations were averaged to yield a single estimate for the study (Hunter &amp; Schmidt, 2004).").</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP10">
-        <v>0.1605157515457125</v>
-      </c>
-      <c r="BQ10">
-        <v>0.1295725592310756</v>
+      <c r="AG10">
+        <v>0.1715770432494655</v>
+      </c>
+      <c r="AH10">
+        <v>0.1712294963844731</v>
+      </c>
+      <c r="AI10">
+        <v>0.171924590114458</v>
+      </c>
+      <c r="AJ10">
+        <v>0.01741244585964582</v>
+      </c>
+      <c r="AK10">
+        <v>0.1693895545835389</v>
+      </c>
+      <c r="AL10">
+        <v>0.169024939497382</v>
+      </c>
+      <c r="AM10">
+        <v>0.1697541696696958</v>
+      </c>
+      <c r="AN10">
+        <v>0.01947736534386598</v>
+      </c>
+      <c r="AO10">
+        <v>0.002187488665926635</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0.002204556887091064</v>
+      </c>
+      <c r="AR10">
+        <v>0.002170420444762206</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>-0.002064919484220162</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
       </c>
       <c r="BR10">
-        <v>0.1336732733038928</v>
+        <v>0.1316229162674842</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>0.1305242610908336</v>
       </c>
       <c r="BT10">
+        <v>0.1327215714441348</v>
+      </c>
+      <c r="BU10">
+        <v>0.02386842924619144</v>
+      </c>
+      <c r="BW10">
         <v>22</v>
       </c>
-      <c r="BU10">
-        <v>32.35294117647059</v>
-      </c>
-      <c r="BV10">
+      <c r="BX10">
+        <v>32.83582089552239</v>
+      </c>
+      <c r="BY10">
         <v>17</v>
       </c>
-      <c r="BW10">
+      <c r="BZ10">
         <v>77.27272727272727</v>
       </c>
-      <c r="BX10">
-        <v>0.1542991982495946</v>
-      </c>
-      <c r="BY10">
-        <v>0.1243053433884805</v>
-      </c>
-      <c r="BZ10">
-        <v>0.1287453417408546</v>
-      </c>
       <c r="CA10">
-        <v>0</v>
+        <v>0.1265253425646676</v>
       </c>
       <c r="CB10">
-        <v>0.006216553296117866</v>
+        <v>0.1253247014480996</v>
       </c>
       <c r="CC10">
-        <v>0</v>
+        <v>0.1277259836812355</v>
       </c>
       <c r="CD10">
-        <v>0.005267215842595152</v>
+        <v>0.02874638465792576</v>
       </c>
       <c r="CE10">
-        <v>0.004927931563038168</v>
+        <v>0.00509757370281666</v>
       </c>
       <c r="CF10">
         <v>0</v>
       </c>
       <c r="CG10">
-        <v>0</v>
+        <v>0.00519955964273397</v>
       </c>
       <c r="CH10">
+        <v>0.004995587762899351</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>-0.004877955411734317</v>
+      </c>
+      <c r="CK10">
         <v>0</v>
       </c>
     </row>
@@ -2381,27 +2944,27 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>Publication status used in meta-regression</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="U11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2409,97 +2972,158 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="inlineStr">
         <is>
           <t>1. ("We used the formula for composites (Hunter &amp; Schmidt,_x000D_
 2004) to derive a linear composite of the effect sizes to ensure the_x000D_
 independence of effects sizes in the final data set.")</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>MA excludes outliers from analyses, but does not run with and without. Contacting authors for unpublished data.</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>Different</t>
         </is>
       </c>
-      <c r="BP11">
+      <c r="AG11">
+        <v>0.1714748002795957</v>
+      </c>
+      <c r="AH11">
+        <v>0.1236398666266186</v>
+      </c>
+      <c r="AI11">
+        <v>0.2193097339325728</v>
+      </c>
+      <c r="AJ11">
+        <v>0.03041100145604928</v>
+      </c>
+      <c r="AK11">
+        <v>0.1735180125059327</v>
+      </c>
+      <c r="AL11">
+        <v>0.1248009961936418</v>
+      </c>
+      <c r="AM11">
+        <v>0.2222350288182237</v>
+      </c>
+      <c r="AN11">
+        <v>0.03206047072297971</v>
+      </c>
+      <c r="AO11">
+        <v>-0.002043212226337049</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>-0.001161129567023217</v>
+      </c>
+      <c r="AR11">
+        <v>-0.002925294885650881</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>-0.00164946926693043</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
         <v>0.2234946394056282</v>
       </c>
-      <c r="BQ11">
+      <c r="BS11">
         <v>0.1194304659368936</v>
       </c>
-      <c r="BR11">
+      <c r="BT11">
         <v>0.3275588128743628</v>
       </c>
-      <c r="BS11">
+      <c r="BU11">
         <v>0.04287711040617763</v>
       </c>
-      <c r="BT11">
+      <c r="BV11">
+        <v>2.561182144864344e-005</v>
+      </c>
+      <c r="BW11">
         <v>21</v>
       </c>
-      <c r="BU11">
+      <c r="BX11">
         <v>26.25</v>
       </c>
-      <c r="BV11">
+      <c r="BY11">
         <v>17</v>
       </c>
-      <c r="BW11">
+      <c r="BZ11">
         <v>80.95238095238095</v>
       </c>
-      <c r="BX11">
+      <c r="CA11">
         <v>0.2305904978717135</v>
       </c>
-      <c r="BY11">
+      <c r="CB11">
         <v>0.122626260923829</v>
       </c>
-      <c r="BZ11">
+      <c r="CC11">
         <v>0.338554734819598</v>
       </c>
-      <c r="CA11">
+      <c r="CD11">
         <v>0.04707833844168591</v>
       </c>
-      <c r="CB11">
+      <c r="CE11">
         <v>-0.00709585846608532</v>
       </c>
-      <c r="CC11">
-        <v>0</v>
-      </c>
-      <c r="CD11">
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
         <v>-0.003195794986935396</v>
       </c>
-      <c r="CE11">
+      <c r="CH11">
         <v>-0.01099592194523524</v>
       </c>
-      <c r="CF11">
-        <v>0</v>
-      </c>
-      <c r="CG11">
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
         <v>-0.004201228035508278</v>
       </c>
-      <c r="CH11">
-        <v>0</v>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>2.837886059742906e-005</v>
       </c>
     </row>
     <row r="12">
@@ -2548,21 +3172,21 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2576,95 +3200,156 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1. ("To ensure independence of effect sizes, we used no sample more than once within an emotion in the aggregation of effect sizes.")</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>Model: "We analyzed data using the mixed-effects model (Lipsey &amp; Wilson, 2001), which combines fixed- and random-effects models". Authors addressing publication bias consists of them including unpublished studies in the literature search.</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP12">
+      <c r="AG12">
+        <v>-0.005934130119729679</v>
+      </c>
+      <c r="AH12">
+        <v>-0.05689298260376806</v>
+      </c>
+      <c r="AI12">
+        <v>0.0450247223643087</v>
+      </c>
+      <c r="AJ12">
+        <v>0.04899209635642717</v>
+      </c>
+      <c r="AK12">
+        <v>0.1735180125059327</v>
+      </c>
+      <c r="AL12">
+        <v>0.1248009961936418</v>
+      </c>
+      <c r="AM12">
+        <v>0.2222350288182237</v>
+      </c>
+      <c r="AN12">
+        <v>0.03206047072297971</v>
+      </c>
+      <c r="AO12">
+        <v>-0.1675838823862031</v>
+      </c>
+      <c r="AP12">
+        <v>2</v>
+      </c>
+      <c r="AQ12">
+        <v>-0.06790801358987376</v>
+      </c>
+      <c r="AR12">
+        <v>-0.177210306453915</v>
+      </c>
+      <c r="AS12">
+        <v>2</v>
+      </c>
+      <c r="AT12">
+        <v>0.01693162563344746</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
         <v>0.03614644202976878</v>
       </c>
-      <c r="BQ12">
+      <c r="BS12">
         <v>-0.04824160045821698</v>
       </c>
-      <c r="BR12">
+      <c r="BT12">
         <v>0.1205344845177545</v>
       </c>
-      <c r="BS12">
+      <c r="BU12">
         <v>0.0233532798171246</v>
       </c>
-      <c r="BT12">
+      <c r="BV12">
+        <v>0.4011757421698759</v>
+      </c>
+      <c r="BW12">
         <v>20</v>
       </c>
-      <c r="BU12">
+      <c r="BX12">
         <v>21.50537634408602</v>
       </c>
-      <c r="BV12">
+      <c r="BY12">
         <v>5</v>
       </c>
-      <c r="BW12">
+      <c r="BZ12">
         <v>25</v>
       </c>
-      <c r="BX12">
+      <c r="CA12">
         <v>0.03818226318387168</v>
       </c>
-      <c r="BY12">
+      <c r="CB12">
         <v>-0.04679859127179689</v>
       </c>
-      <c r="BZ12">
+      <c r="CC12">
         <v>0.1231631176395402</v>
       </c>
-      <c r="CA12">
+      <c r="CD12">
         <v>0.0238259382709878</v>
       </c>
-      <c r="CB12">
+      <c r="CE12">
         <v>-0.002035821154102897</v>
       </c>
-      <c r="CC12">
-        <v>0</v>
-      </c>
-      <c r="CD12">
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
         <v>0.00144300918642009</v>
       </c>
-      <c r="CE12">
+      <c r="CH12">
         <v>-0.002628633121785712</v>
       </c>
-      <c r="CF12">
-        <v>0</v>
-      </c>
-      <c r="CG12">
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
         <v>-0.0004726584538631944</v>
       </c>
-      <c r="CH12">
-        <v>0</v>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0.3785233983704072</v>
       </c>
     </row>
     <row r="13">
@@ -2713,27 +3398,27 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>Publication status used in meta-regression</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="U13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2741,90 +3426,151 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="inlineStr">
         <is>
           <t>1 . ("Additionally, if there was more than one effect size per study, within-study aggregation was performed (see Del Re, 2010; Del Re &amp; Hoyt, 2010).")</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP13">
+      <c r="AG13">
+        <v>0.3046690946945236</v>
+      </c>
+      <c r="AH13">
+        <v>0.1746042124313566</v>
+      </c>
+      <c r="AI13">
+        <v>0.4347339769576906</v>
+      </c>
+      <c r="AJ13">
+        <v>0.05877922337579686</v>
+      </c>
+      <c r="AK13">
+        <v>0.3101226919749951</v>
+      </c>
+      <c r="AL13">
+        <v>0.1640674368944732</v>
+      </c>
+      <c r="AM13">
+        <v>0.456177947055517</v>
+      </c>
+      <c r="AN13">
+        <v>0.07919991646084217</v>
+      </c>
+      <c r="AO13">
+        <v>-0.005453597280471512</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0.01053677553688337</v>
+      </c>
+      <c r="AR13">
+        <v>-0.02144397009782639</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>-0.02042069308504531</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
         <v>0.3214474296083071</v>
       </c>
-      <c r="BQ13">
+      <c r="BS13">
         <v>0.2090317133957518</v>
       </c>
-      <c r="BR13">
+      <c r="BT13">
         <v>0.4338631458208624</v>
       </c>
-      <c r="BS13">
+      <c r="BU13">
         <v>0.01773327488799818</v>
       </c>
-      <c r="BT13">
+      <c r="BV13">
+        <v>2.089481419278802e-008</v>
+      </c>
+      <c r="BW13">
         <v>11</v>
       </c>
-      <c r="BU13">
+      <c r="BX13">
         <v>61.11111111111111</v>
       </c>
-      <c r="BV13">
-        <v>1</v>
-      </c>
-      <c r="BW13">
+      <c r="BY13">
+        <v>1</v>
+      </c>
+      <c r="BZ13">
         <v>9.090909090909092</v>
       </c>
-      <c r="BX13">
+      <c r="CA13">
         <v>0.3227130662182568</v>
       </c>
-      <c r="BY13">
+      <c r="CB13">
         <v>0.163145528109776</v>
       </c>
-      <c r="BZ13">
+      <c r="CC13">
         <v>0.4822806043267376</v>
       </c>
-      <c r="CA13">
+      <c r="CD13">
         <v>0.05316727715547815</v>
       </c>
-      <c r="CB13">
+      <c r="CE13">
         <v>-0.001265636609949716</v>
       </c>
-      <c r="CC13">
-        <v>0</v>
-      </c>
-      <c r="CD13">
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
         <v>0.04588618528597582</v>
       </c>
-      <c r="CE13">
+      <c r="CH13">
         <v>-0.04841745850587526</v>
       </c>
-      <c r="CF13">
-        <v>1</v>
-      </c>
-      <c r="CG13">
+      <c r="CI13">
+        <v>1</v>
+      </c>
+      <c r="CJ13">
         <v>-0.03543400226747997</v>
       </c>
-      <c r="CH13">
-        <v>1</v>
+      <c r="CK13">
+        <v>1</v>
+      </c>
+      <c r="CL13">
+        <v>7.374246563075689e-005</v>
       </c>
     </row>
     <row r="14">
@@ -2866,133 +3612,194 @@
         </is>
       </c>
       <c r="J14">
-        <v>-0.3457240964903566</v>
+        <v>-0.3457240964903568</v>
       </c>
       <c r="K14">
-        <v>-0.3854728946118532</v>
+        <v>-0.3854728946118534</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>FE+RE</t>
         </is>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>Fail-safe N</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>Funnel plot</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>Trim and fill</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>Contacting authors for unpublished data. Dependency addressed consists of mentioning effect sizes are independent: "We obtained a total of 153 effect size estimates with a final sample of N = 105 fully independent effect size estimates from N = 53 articles on the basis of more than 7,700 participants"</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>Different</t>
         </is>
       </c>
-      <c r="BP14">
+      <c r="AG14">
+        <v>0.3854728946118534</v>
+      </c>
+      <c r="AH14">
+        <v>0.2719528505080141</v>
+      </c>
+      <c r="AI14">
+        <v>0.4989929387156927</v>
+      </c>
+      <c r="AJ14">
+        <v>0.2522499198441276</v>
+      </c>
+      <c r="AK14">
+        <v>0.374503949785591</v>
+      </c>
+      <c r="AL14">
+        <v>0.2624375074356699</v>
+      </c>
+      <c r="AM14">
+        <v>0.4865703921355121</v>
+      </c>
+      <c r="AN14">
+        <v>0.2429117541668925</v>
+      </c>
+      <c r="AO14">
+        <v>0.01096894482626243</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0.009515343072344251</v>
+      </c>
+      <c r="AR14">
+        <v>0.01242254658018061</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0.009338165677235055</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
         <v>0.4942390848013875</v>
       </c>
-      <c r="BQ14">
+      <c r="BS14">
         <v>0.1616167126979792</v>
       </c>
-      <c r="BR14">
+      <c r="BT14">
         <v>0.8268614569047958</v>
       </c>
-      <c r="BS14">
+      <c r="BU14">
         <v>0.4882478062767915</v>
       </c>
-      <c r="BT14">
+      <c r="BV14">
+        <v>0.003587962757099451</v>
+      </c>
+      <c r="BW14">
         <v>20</v>
       </c>
-      <c r="BU14">
+      <c r="BX14">
         <v>19.04761904761905</v>
       </c>
-      <c r="BV14">
+      <c r="BY14">
         <v>15</v>
       </c>
-      <c r="BW14">
+      <c r="BZ14">
         <v>75</v>
       </c>
-      <c r="BX14">
+      <c r="CA14">
         <v>0.4382510572980859</v>
       </c>
-      <c r="BY14">
+      <c r="CB14">
         <v>0.1185626631855806</v>
       </c>
-      <c r="BZ14">
+      <c r="CC14">
         <v>0.7579394514105913</v>
       </c>
-      <c r="CA14">
+      <c r="CD14">
         <v>0.4411581053393927</v>
       </c>
-      <c r="CB14">
+      <c r="CE14">
         <v>0.05598802750330162</v>
       </c>
-      <c r="CC14">
-        <v>1</v>
-      </c>
-      <c r="CD14">
+      <c r="CF14">
+        <v>1</v>
+      </c>
+      <c r="CG14">
         <v>0.04305404951239861</v>
       </c>
-      <c r="CE14">
+      <c r="CH14">
         <v>0.06892200549420458</v>
       </c>
-      <c r="CF14">
-        <v>1</v>
-      </c>
-      <c r="CG14">
+      <c r="CI14">
+        <v>1</v>
+      </c>
+      <c r="CJ14">
         <v>0.04708970093739889</v>
       </c>
-      <c r="CH14">
-        <v>0</v>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14">
+        <v>0.007212830490347947</v>
       </c>
     </row>
     <row r="15">
@@ -3041,123 +3848,184 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>Fail-safe N</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>Funnel plot</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="inlineStr">
         <is>
           <t>1. ("Lipsey and Wilson (2001) recommended using only a single effect size from every study to avoid violating independence. We heeded this recommendation and developed a procedure to select no more than one performance and one response-time effect size based on any single group of individuals.")</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>Outliers winsorized to minimize their influence.</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>Null</t>
         </is>
       </c>
-      <c r="BP15">
+      <c r="AG15">
+        <v>0.06484389110035607</v>
+      </c>
+      <c r="AH15">
+        <v>0.0101801448372856</v>
+      </c>
+      <c r="AI15">
+        <v>0.1191212286311194</v>
+      </c>
+      <c r="AJ15">
+        <v>0.03642685750540105</v>
+      </c>
+      <c r="AK15">
+        <v>0.05924976650048998</v>
+      </c>
+      <c r="AL15">
+        <v>0.00537178258156635</v>
+      </c>
+      <c r="AM15">
+        <v>0.1127847513454792</v>
+      </c>
+      <c r="AN15">
+        <v>0.03450318488582326</v>
+      </c>
+      <c r="AO15">
+        <v>0.005594124599866093</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0.004808362255719251</v>
+      </c>
+      <c r="AR15">
+        <v>0.006336477285640185</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0.001923672619577786</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
         <v>0.08286464223756894</v>
       </c>
-      <c r="BQ15">
+      <c r="BS15">
         <v>-0.06831617574053422</v>
       </c>
-      <c r="BR15">
+      <c r="BT15">
         <v>0.2303252761146994</v>
       </c>
-      <c r="BS15">
-        <v>0.07981872144351447</v>
-      </c>
-      <c r="BT15">
+      <c r="BU15">
+        <v>0.07998888148621232</v>
+      </c>
+      <c r="BV15">
+        <v>0.2825334612213424</v>
+      </c>
+      <c r="BW15">
         <v>20</v>
       </c>
-      <c r="BU15">
+      <c r="BX15">
         <v>21.27659574468085</v>
       </c>
-      <c r="BV15">
+      <c r="BY15">
         <v>13</v>
       </c>
-      <c r="BW15">
+      <c r="BZ15">
         <v>65</v>
       </c>
-      <c r="BX15">
+      <c r="CA15">
         <v>0.05583238875040168</v>
       </c>
-      <c r="BY15">
+      <c r="CB15">
         <v>-0.08955373051402023</v>
       </c>
-      <c r="BZ15">
+      <c r="CC15">
         <v>0.1988887952346881</v>
       </c>
-      <c r="CA15">
-        <v>0.07126438209090272</v>
-      </c>
-      <c r="CB15">
+      <c r="CD15">
+        <v>0.07138539242992494</v>
+      </c>
+      <c r="CE15">
         <v>0.02703225348716726</v>
       </c>
-      <c r="CC15">
-        <v>1</v>
-      </c>
-      <c r="CD15">
+      <c r="CF15">
+        <v>1</v>
+      </c>
+      <c r="CG15">
         <v>-0.021237554773486</v>
       </c>
-      <c r="CE15">
+      <c r="CH15">
         <v>0.0314364808800113</v>
       </c>
-      <c r="CF15">
-        <v>1</v>
-      </c>
-      <c r="CG15">
-        <v>0.008554339352611753</v>
-      </c>
-      <c r="CH15">
-        <v>0</v>
+      <c r="CI15">
+        <v>1</v>
+      </c>
+      <c r="CJ15">
+        <v>0.008603489056287383</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15">
+        <v>0.452098869733736</v>
       </c>
     </row>
     <row r="16">
@@ -3206,27 +4074,27 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>REML</t>
+        </is>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" t="inlineStr">
         <is>
           <t>Funnel plot</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="U16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3234,98 +4102,159 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="inlineStr">
         <is>
           <t>1. ("In order to cope with any dependencies among these_x000D_
 effect sizes, we used the hierarchical linear modeling (HLM)_x000D_
 approach to meta-analysis").</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>One outlier found, results did not change by in/excluding it:  "This effect size did not have much leverage, and omitting it from the analysis had no impact on the stability of the_x000D_
 results."</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP16">
+      <c r="AG16">
+        <v>0.3519042852602268</v>
+      </c>
+      <c r="AH16">
+        <v>0.3406784506076295</v>
+      </c>
+      <c r="AI16">
+        <v>0.3631301199128241</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0.351903114121401</v>
+      </c>
+      <c r="AL16">
+        <v>0.3406773526773457</v>
+      </c>
+      <c r="AM16">
+        <v>0.3631288755654563</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>1.171138825750706e-006</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>1.097930283744386e-006</v>
+      </c>
+      <c r="AR16">
+        <v>1.244347367757026e-006</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
         <v>0.3534372176584859</v>
       </c>
-      <c r="BQ16">
+      <c r="BS16">
         <v>0.3223852353834779</v>
       </c>
-      <c r="BR16">
+      <c r="BT16">
         <v>0.3844891999334938</v>
       </c>
-      <c r="BS16">
-        <v>0</v>
-      </c>
-      <c r="BT16">
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>3.053366527587873e-110</v>
+      </c>
+      <c r="BW16">
         <v>20</v>
       </c>
-      <c r="BU16">
+      <c r="BX16">
         <v>12.98701298701299</v>
       </c>
-      <c r="BV16">
+      <c r="BY16">
         <v>20</v>
       </c>
-      <c r="BW16">
+      <c r="BZ16">
         <v>100</v>
       </c>
-      <c r="BX16">
+      <c r="CA16">
         <v>0.3534281046072564</v>
       </c>
-      <c r="BY16">
+      <c r="CB16">
         <v>0.3223776716680876</v>
       </c>
-      <c r="BZ16">
+      <c r="CC16">
         <v>0.3844785375464253</v>
       </c>
-      <c r="CA16">
-        <v>0</v>
-      </c>
-      <c r="CB16">
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
         <v>9.113051229414637e-006</v>
       </c>
-      <c r="CC16">
-        <v>0</v>
-      </c>
-      <c r="CD16">
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16">
         <v>7.563715390235259e-006</v>
       </c>
-      <c r="CE16">
+      <c r="CH16">
         <v>1.066238706859402e-005</v>
       </c>
-      <c r="CF16">
-        <v>0</v>
-      </c>
-      <c r="CG16">
-        <v>0</v>
-      </c>
-      <c r="CH16">
-        <v>0</v>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16">
+        <v>3.016872640945017e-110</v>
       </c>
     </row>
     <row r="17">
@@ -3374,21 +4303,21 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -3405,87 +4334,148 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="inlineStr">
         <is>
           <t>1 - "For studies that permitted multiple comparisons by including more than one control group and/or feigning group, the sample size for each duplicated group was divided in half before composite effect sizes were calculated".</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP17">
+      <c r="AG17">
+        <v>2.243050013642111</v>
+      </c>
+      <c r="AH17">
+        <v>1.467125559483224</v>
+      </c>
+      <c r="AI17">
+        <v>3.018974467800999</v>
+      </c>
+      <c r="AJ17">
+        <v>2.410628680326997</v>
+      </c>
+      <c r="AK17">
+        <v>2.241328641391577</v>
+      </c>
+      <c r="AL17">
+        <v>1.463156792184156</v>
+      </c>
+      <c r="AM17">
+        <v>3.019500490598998</v>
+      </c>
+      <c r="AN17">
+        <v>2.425169747938619</v>
+      </c>
+      <c r="AO17">
+        <v>0.001721372250534703</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0.003968767299068254</v>
+      </c>
+      <c r="AR17">
+        <v>-0.0005260227979988486</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>-0.01454106761162199</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
         <v>2.483943603920217</v>
       </c>
-      <c r="BQ17">
+      <c r="BS17">
         <v>1.559629346441549</v>
       </c>
-      <c r="BR17">
+      <c r="BT17">
         <v>3.408257861398885</v>
       </c>
-      <c r="BS17">
+      <c r="BU17">
         <v>2.789823146614805</v>
       </c>
-      <c r="BT17">
+      <c r="BV17">
+        <v>1.386084742262147e-007</v>
+      </c>
+      <c r="BW17">
         <v>13</v>
       </c>
-      <c r="BU17">
+      <c r="BX17">
         <v>81.25</v>
       </c>
-      <c r="BV17">
+      <c r="BY17">
         <v>5</v>
       </c>
-      <c r="BW17">
+      <c r="BZ17">
         <v>38.46153846153847</v>
       </c>
-      <c r="BX17">
+      <c r="CA17">
         <v>2.481896098864509</v>
       </c>
-      <c r="BY17">
+      <c r="CB17">
         <v>1.553363005372358</v>
       </c>
-      <c r="BZ17">
+      <c r="CC17">
         <v>3.410429192356659</v>
       </c>
-      <c r="CA17">
+      <c r="CD17">
         <v>2.816266545987511</v>
       </c>
-      <c r="CB17">
+      <c r="CE17">
         <v>0.002047505055708498</v>
       </c>
-      <c r="CC17">
-        <v>0</v>
-      </c>
-      <c r="CD17">
+      <c r="CF17">
+        <v>0</v>
+      </c>
+      <c r="CG17">
         <v>0.006266341069191217</v>
       </c>
-      <c r="CE17">
+      <c r="CH17">
         <v>-0.00217133095777422</v>
       </c>
-      <c r="CF17">
-        <v>0</v>
-      </c>
-      <c r="CG17">
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
         <v>-0.02644339937270646</v>
       </c>
-      <c r="CH17">
-        <v>0</v>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17">
+        <v>1.615978644179531e-007</v>
       </c>
     </row>
     <row r="18">
@@ -3534,123 +4524,184 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18" t="inlineStr">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18" t="inlineStr">
         <is>
           <t>Funnel plot</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>Trim and fill</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="inlineStr">
         <is>
           <t>1. (Several, search "Independence of effect sizes." in MA).</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>Contacting authors for unpublished data. Outlier: "Except where noted, the results presented here did not differ significantly when the outlier was included."</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP18">
+      <c r="AG18">
+        <v>0.1985834710742396</v>
+      </c>
+      <c r="AH18">
+        <v>0.08800602946744522</v>
+      </c>
+      <c r="AI18">
+        <v>0.3091609126810339</v>
+      </c>
+      <c r="AJ18">
+        <v>0.05566886460116143</v>
+      </c>
+      <c r="AK18">
+        <v>0.154002199633316</v>
+      </c>
+      <c r="AL18">
+        <v>0.07094739729775647</v>
+      </c>
+      <c r="AM18">
+        <v>0.2370570019688755</v>
+      </c>
+      <c r="AN18">
+        <v>0.002710257577443594</v>
+      </c>
+      <c r="AO18">
+        <v>0.04458127144092361</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0.01705863216968875</v>
+      </c>
+      <c r="AR18">
+        <v>0.07210391071215844</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>0.05295860702371784</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="BR18">
         <v>0.3478556419601157</v>
       </c>
-      <c r="BQ18">
+      <c r="BS18">
         <v>-0.0217360741725548</v>
       </c>
-      <c r="BR18">
+      <c r="BT18">
         <v>0.7174473580927863</v>
       </c>
-      <c r="BS18">
+      <c r="BU18">
         <v>0.3038825526364643</v>
       </c>
-      <c r="BT18">
+      <c r="BV18">
+        <v>0.06508170625840863</v>
+      </c>
+      <c r="BW18">
         <v>11</v>
       </c>
-      <c r="BU18">
+      <c r="BX18">
         <v>25.58139534883721</v>
       </c>
-      <c r="BV18">
+      <c r="BY18">
         <v>3</v>
       </c>
-      <c r="BW18">
+      <c r="BZ18">
         <v>27.27272727272727</v>
       </c>
-      <c r="BX18">
+      <c r="CA18">
         <v>0.2297090750891771</v>
       </c>
-      <c r="BY18">
+      <c r="CB18">
         <v>-0.0120863188540942</v>
       </c>
-      <c r="BZ18">
+      <c r="CC18">
         <v>0.4715044690324485</v>
       </c>
-      <c r="CA18">
+      <c r="CD18">
         <v>0.08440676750682009</v>
       </c>
-      <c r="CB18">
+      <c r="CE18">
         <v>0.1181465668709386</v>
       </c>
-      <c r="CC18">
-        <v>1</v>
-      </c>
-      <c r="CD18">
+      <c r="CF18">
+        <v>1</v>
+      </c>
+      <c r="CG18">
         <v>0.009649755318460601</v>
       </c>
-      <c r="CE18">
+      <c r="CH18">
         <v>0.2459428890603378</v>
       </c>
-      <c r="CF18">
+      <c r="CI18">
         <v>2</v>
       </c>
-      <c r="CG18">
+      <c r="CJ18">
         <v>0.2194757851296442</v>
       </c>
-      <c r="CH18">
+      <c r="CK18">
         <v>2</v>
+      </c>
+      <c r="CL18">
+        <v>0.06260397016048737</v>
       </c>
     </row>
     <row r="19">
@@ -3699,21 +4750,21 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -3730,87 +4781,148 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>1</v>
-      </c>
-      <c r="AB19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="inlineStr">
         <is>
           <t>1. ("Additionally, if a study included more than one measure of cognitive performance, the arithmetic mean of multiple dependent effect sizes Hedges’ g was calculated before deriving a single effect size Hedges’ d (cf. DeCoster, 2004).").</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP19">
+      <c r="AG19">
+        <v>0.02874559491405237</v>
+      </c>
+      <c r="AH19">
+        <v>-0.008411098497448408</v>
+      </c>
+      <c r="AI19">
+        <v>0.06590228832555314</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0.02374842161673574</v>
+      </c>
+      <c r="AL19">
+        <v>-0.01473096576784248</v>
+      </c>
+      <c r="AM19">
+        <v>0.06222780900131396</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0.00499717329731663</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>-0.006319867270394075</v>
+      </c>
+      <c r="AR19">
+        <v>0.003674479324239185</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
         <v>0.03230608380023765</v>
       </c>
-      <c r="BQ19">
+      <c r="BS19">
         <v>-0.00644449457877451</v>
       </c>
-      <c r="BR19">
+      <c r="BT19">
         <v>0.07105666217924982</v>
       </c>
-      <c r="BS19">
-        <v>0</v>
-      </c>
-      <c r="BT19">
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0.1022571401748783</v>
+      </c>
+      <c r="BW19">
         <v>14</v>
       </c>
-      <c r="BU19">
+      <c r="BX19">
         <v>70</v>
       </c>
-      <c r="BV19">
+      <c r="BY19">
         <v>7</v>
       </c>
-      <c r="BW19">
+      <c r="BZ19">
         <v>50</v>
       </c>
-      <c r="BX19">
+      <c r="CA19">
         <v>0.02710518823983092</v>
       </c>
-      <c r="BY19">
+      <c r="CB19">
         <v>-0.01314870294943331</v>
       </c>
-      <c r="BZ19">
+      <c r="CC19">
         <v>0.06735907942909515</v>
       </c>
-      <c r="CA19">
-        <v>0</v>
-      </c>
-      <c r="CB19">
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
         <v>0.005200895560406732</v>
       </c>
-      <c r="CC19">
-        <v>0</v>
-      </c>
-      <c r="CD19">
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19">
         <v>-0.006704208370658799</v>
       </c>
-      <c r="CE19">
+      <c r="CH19">
         <v>0.003697582750154665</v>
       </c>
-      <c r="CF19">
-        <v>0</v>
-      </c>
-      <c r="CG19">
-        <v>0</v>
-      </c>
-      <c r="CH19">
-        <v>0</v>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19">
+        <v>0.1869175059171154</v>
       </c>
     </row>
     <row r="20">
@@ -3859,123 +4971,184 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20" t="inlineStr">
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20" t="inlineStr">
         <is>
           <t>Funnel plot</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>Egger's test</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>Trim and fill</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>Publication status used in meta-regression</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>1</v>
       </c>
       <c r="AA20">
-        <v>1</v>
-      </c>
-      <c r="AB20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="inlineStr">
         <is>
           <t>1. ("If the same participants rated more than one leader category, these effect sizes were averaged prior to calculating study-level mean effect sizes but retained as separate effect sizes for moderator analyses.").</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>Separate analyses with published and unpublished effect sizes. Contacting authors for unpublished data.</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP20">
+      <c r="AG20">
+        <v>1.403176763723481</v>
+      </c>
+      <c r="AH20">
+        <v>1.190189027727245</v>
+      </c>
+      <c r="AI20">
+        <v>1.616164499719718</v>
+      </c>
+      <c r="AJ20">
+        <v>0.493963069718006</v>
+      </c>
+      <c r="AK20">
+        <v>1.451325869466713</v>
+      </c>
+      <c r="AL20">
+        <v>1.219671831253081</v>
+      </c>
+      <c r="AM20">
+        <v>1.682979907680345</v>
+      </c>
+      <c r="AN20">
+        <v>0.5970519902461101</v>
+      </c>
+      <c r="AO20">
+        <v>-0.04814910574323172</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>-0.0294828035258361</v>
+      </c>
+      <c r="AR20">
+        <v>-0.06681540796062735</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>-0.1030889205281041</v>
+      </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="BR20">
         <v>1.446775092656554</v>
       </c>
-      <c r="BQ20">
+      <c r="BS20">
         <v>1.042957124502121</v>
       </c>
-      <c r="BR20">
+      <c r="BT20">
         <v>1.850593060810986</v>
       </c>
-      <c r="BS20">
+      <c r="BU20">
         <v>0.770680867072962</v>
       </c>
-      <c r="BT20">
+      <c r="BV20">
+        <v>2.186474537364224e-012</v>
+      </c>
+      <c r="BW20">
         <v>20</v>
       </c>
-      <c r="BU20">
+      <c r="BX20">
         <v>41.66666666666667</v>
       </c>
-      <c r="BV20">
+      <c r="BY20">
         <v>8</v>
       </c>
-      <c r="BW20">
+      <c r="BZ20">
         <v>40</v>
       </c>
-      <c r="BX20">
+      <c r="CA20">
         <v>1.554718801226247</v>
       </c>
-      <c r="BY20">
+      <c r="CB20">
         <v>1.111358705256429</v>
       </c>
-      <c r="BZ20">
+      <c r="CC20">
         <v>1.998078897196066</v>
       </c>
-      <c r="CA20">
+      <c r="CD20">
         <v>0.9456665743256952</v>
       </c>
-      <c r="CB20">
+      <c r="CE20">
         <v>-0.1079437085696939</v>
       </c>
-      <c r="CC20">
-        <v>1</v>
-      </c>
-      <c r="CD20">
+      <c r="CF20">
+        <v>1</v>
+      </c>
+      <c r="CG20">
         <v>-0.06840158075430747</v>
       </c>
-      <c r="CE20">
+      <c r="CH20">
         <v>-0.1474858363850804</v>
       </c>
-      <c r="CF20">
-        <v>1</v>
-      </c>
-      <c r="CG20">
+      <c r="CI20">
+        <v>1</v>
+      </c>
+      <c r="CJ20">
         <v>-0.1749857072527332</v>
       </c>
-      <c r="CH20">
+      <c r="CK20">
         <v>2</v>
+      </c>
+      <c r="CL20">
+        <v>6.288653432853854e-012</v>
       </c>
     </row>
     <row r="21">
@@ -4024,43 +5197,47 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="inlineStr">
         <is>
           <t>Fail-safe N</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>Adjusted Fail-safe N</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
       <c r="Y21">
         <v>0</v>
       </c>
@@ -4068,74 +5245,131 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="inlineStr">
         <is>
           <t>1. ("For studies reporting multiple correlations and using multiple measures, we aggregated within each study by accounting for the dependencies of measures.").</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP21">
+      <c r="AG21">
+        <v>0.2509581397206921</v>
+      </c>
+      <c r="AH21">
+        <v>0.1415892088487856</v>
+      </c>
+      <c r="AI21">
+        <v>0.3603270705925986</v>
+      </c>
+      <c r="AJ21">
+        <v>0.03083144061597048</v>
+      </c>
+      <c r="AK21">
+        <v>0.2383393382020502</v>
+      </c>
+      <c r="AL21">
+        <v>0.1584953667612447</v>
+      </c>
+      <c r="AM21">
+        <v>0.3181833096428557</v>
+      </c>
+      <c r="AN21">
+        <v>0.008726617155309742</v>
+      </c>
+      <c r="AO21">
+        <v>0.01261880151864189</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>-0.01690615791245906</v>
+      </c>
+      <c r="AR21">
+        <v>0.04214376094974287</v>
+      </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>0.02210482346066073</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
         <v>0.2409772863694446</v>
       </c>
-      <c r="BQ21">
+      <c r="BS21">
         <v>0.08049459934024489</v>
       </c>
-      <c r="BR21">
+      <c r="BT21">
         <v>0.4014599733986444</v>
       </c>
-      <c r="BS21">
+      <c r="BU21">
         <v>0.04446043374301496</v>
       </c>
-      <c r="BT21">
-        <v>10</v>
-      </c>
-      <c r="BU21">
-        <v>62.5</v>
-      </c>
       <c r="BV21">
-        <v>1</v>
+        <v>0.003250075007027019</v>
       </c>
       <c r="BW21">
         <v>10</v>
       </c>
       <c r="BX21">
+        <v>62.5</v>
+      </c>
+      <c r="BY21">
+        <v>1</v>
+      </c>
+      <c r="BZ21">
+        <v>10</v>
+      </c>
+      <c r="CA21">
         <v>0.2145893638595315</v>
       </c>
-      <c r="BY21">
+      <c r="CB21">
         <v>0.1109883556004029</v>
       </c>
-      <c r="BZ21">
+      <c r="CC21">
         <v>0.3181903721186602</v>
       </c>
-      <c r="CA21">
+      <c r="CD21">
         <v>0.007368507821219845</v>
       </c>
-      <c r="CB21">
+      <c r="CE21">
         <v>0.02638792250991309</v>
       </c>
-      <c r="CC21">
-        <v>1</v>
-      </c>
-      <c r="CD21">
+      <c r="CF21">
+        <v>1</v>
+      </c>
+      <c r="CG21">
         <v>-0.03049375626015802</v>
       </c>
-      <c r="CE21">
+      <c r="CH21">
         <v>0.08326960127998417</v>
       </c>
-      <c r="CF21">
+      <c r="CI21">
         <v>2</v>
       </c>
-      <c r="CG21">
+      <c r="CJ21">
         <v>0.03709192592179512</v>
       </c>
-      <c r="CH21">
-        <v>1</v>
+      <c r="CK21">
+        <v>1</v>
+      </c>
+      <c r="CL21">
+        <v>4.913903224743249e-005</v>
       </c>
     </row>
     <row r="22">
@@ -4184,27 +5418,27 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22" t="inlineStr">
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>Trim and fill</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="U22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4212,95 +5446,156 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="inlineStr">
         <is>
           <t>1 . ("Six studies presented data on (partly) overlapping samples. When samples of studies were overlapping, the papers that reported on the largest groups of participants were included in our meta-analysis.")</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>Outliers: authors mention no outliers were found, but do not perform any analyses: "No outliers (standardized z-values smaller than 3.29 or larger than 3.29; Tabachnick &amp; Fidell, 2001) were found for study effect sizes."</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP22">
+      <c r="AG22">
+        <v>0.1248040169265051</v>
+      </c>
+      <c r="AH22">
+        <v>0.0725970886073692</v>
+      </c>
+      <c r="AI22">
+        <v>0.1770109452456411</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0.1203160631399284</v>
+      </c>
+      <c r="AL22">
+        <v>0.06801918693301461</v>
+      </c>
+      <c r="AM22">
+        <v>0.1726129393468422</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0.004487953786576751</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0.004577901674354595</v>
+      </c>
+      <c r="AR22">
+        <v>0.004398005898798907</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
         <v>0.115906054059857</v>
       </c>
-      <c r="BQ22">
+      <c r="BS22">
         <v>0.04304011465074757</v>
       </c>
-      <c r="BR22">
+      <c r="BT22">
         <v>0.1887719934689665</v>
       </c>
-      <c r="BS22">
+      <c r="BU22">
         <v>0.003739564622387571</v>
       </c>
-      <c r="BT22">
+      <c r="BV22">
+        <v>0.001822890057390284</v>
+      </c>
+      <c r="BW22">
         <v>11</v>
       </c>
-      <c r="BU22">
+      <c r="BX22">
         <v>68.75</v>
       </c>
-      <c r="BV22">
+      <c r="BY22">
         <v>7</v>
       </c>
-      <c r="BW22">
+      <c r="BZ22">
         <v>63.63636363636363</v>
       </c>
-      <c r="BX22">
+      <c r="CA22">
         <v>0.108913910130457</v>
       </c>
-      <c r="BY22">
+      <c r="CB22">
         <v>0.03896951715575389</v>
       </c>
-      <c r="BZ22">
+      <c r="CC22">
         <v>0.1788583031051602</v>
       </c>
-      <c r="CA22">
+      <c r="CD22">
         <v>0.002608697742820481</v>
       </c>
-      <c r="CB22">
+      <c r="CE22">
         <v>0.006992143929399994</v>
       </c>
-      <c r="CC22">
-        <v>0</v>
-      </c>
-      <c r="CD22">
+      <c r="CF22">
+        <v>0</v>
+      </c>
+      <c r="CG22">
         <v>0.00407059749499368</v>
       </c>
-      <c r="CE22">
+      <c r="CH22">
         <v>0.009913690363806321</v>
       </c>
-      <c r="CF22">
-        <v>0</v>
-      </c>
-      <c r="CG22">
+      <c r="CI22">
+        <v>0</v>
+      </c>
+      <c r="CJ22">
         <v>0.00113086687956709</v>
       </c>
-      <c r="CH22">
-        <v>0</v>
+      <c r="CK22">
+        <v>0</v>
+      </c>
+      <c r="CL22">
+        <v>0.00227354001421407</v>
       </c>
     </row>
     <row r="23">
@@ -4349,124 +5644,185 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" t="inlineStr">
         <is>
           <t>Fail-safe N</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>Funnel plot</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>Trim and fill</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>Publication status used in meta-regression</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="inlineStr">
         <is>
           <t>1. ("When multiple, independent samples were included within one_x000D_
 article, we treated them as separate studies").</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>Separate analyses with published and unpublished effect sizes. Different publication bias methods show different results- Publication status used in meta-regression did not find any significant differences, but trim and fill and fail-safe N found some results for publication bias. Outliers were mentioned but no analyses performed: "Overall, standardized z values fell within the range of  3.26 to 3.26 for all effect sizes ( p   .001), implying that no outliers were present." Contacting the authors: "The data from [...] were obtained by e-mailing the authors."</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP23">
+      <c r="AG23">
         <v>0.2718929120964432</v>
       </c>
-      <c r="BQ23">
+      <c r="AH23">
         <v>0.1931368367838089</v>
       </c>
+      <c r="AI23">
+        <v>0.3506489874090776</v>
+      </c>
+      <c r="AJ23">
+        <v>0.0002554239343344868</v>
+      </c>
+      <c r="AK23">
+        <v>0.2657857961248207</v>
+      </c>
+      <c r="AL23">
+        <v>0.1915468664379424</v>
+      </c>
+      <c r="AM23">
+        <v>0.3400247258116991</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0.006107115971622501</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0.001589970345866498</v>
+      </c>
+      <c r="AR23">
+        <v>0.0106242615973785</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0.0002554239343344868</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
       <c r="BR23">
+        <v>0.2718929120964432</v>
+      </c>
+      <c r="BS23">
+        <v>0.1931368367838089</v>
+      </c>
+      <c r="BT23">
         <v>0.3506489874090776</v>
       </c>
-      <c r="BS23">
+      <c r="BU23">
         <v>0.0002554239343344868</v>
       </c>
-      <c r="BT23">
+      <c r="BV23">
+        <v>1.319659233083653e-011</v>
+      </c>
+      <c r="BW23">
         <v>8</v>
       </c>
-      <c r="BU23">
+      <c r="BX23">
         <v>100</v>
       </c>
-      <c r="BV23">
+      <c r="BY23">
         <v>8</v>
       </c>
-      <c r="BW23">
+      <c r="BZ23">
         <v>100</v>
       </c>
-      <c r="BX23">
+      <c r="CA23">
         <v>0.2657857961248207</v>
       </c>
-      <c r="BY23">
+      <c r="CB23">
         <v>0.1915468664379424</v>
       </c>
-      <c r="BZ23">
+      <c r="CC23">
         <v>0.3400247258116991</v>
       </c>
-      <c r="CA23">
-        <v>0</v>
-      </c>
-      <c r="CB23">
+      <c r="CD23">
+        <v>0</v>
+      </c>
+      <c r="CE23">
         <v>0.006107115971622501</v>
       </c>
-      <c r="CC23">
-        <v>0</v>
-      </c>
-      <c r="CD23">
+      <c r="CF23">
+        <v>0</v>
+      </c>
+      <c r="CG23">
         <v>0.001589970345866498</v>
       </c>
-      <c r="CE23">
+      <c r="CH23">
         <v>0.0106242615973785</v>
       </c>
-      <c r="CF23">
-        <v>0</v>
-      </c>
-      <c r="CG23">
+      <c r="CI23">
+        <v>0</v>
+      </c>
+      <c r="CJ23">
         <v>0.0002554239343344868</v>
       </c>
-      <c r="CH23">
-        <v>0</v>
+      <c r="CK23">
+        <v>0</v>
+      </c>
+      <c r="CL23">
+        <v>2.267696036335327e-012</v>
       </c>
     </row>
     <row r="24">
@@ -4515,27 +5871,27 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24" t="inlineStr">
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>MoM</t>
+        </is>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>Fail-safe N</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="U24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4543,95 +5899,156 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
       <c r="AA24">
-        <v>1</v>
-      </c>
-      <c r="AB24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="inlineStr">
         <is>
           <t>1. ("If a given study had multiple ESs for a general outcome (e.g., an ES for depression and an ES for obsessive compulsive disorder under the general outcome “mental health”), then these ESs were averaged to create an overall ES for that study.").</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>Didn't do supgroup analysis due to small sample size and missing data</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP24">
+      <c r="AG24">
+        <v>0.922860881729112</v>
+      </c>
+      <c r="AH24">
+        <v>0.6744919403355932</v>
+      </c>
+      <c r="AI24">
+        <v>1.171229823122631</v>
+      </c>
+      <c r="AJ24">
+        <v>0.09327421044623742</v>
+      </c>
+      <c r="AK24">
+        <v>0.9223267201699172</v>
+      </c>
+      <c r="AL24">
+        <v>0.6722745200929466</v>
+      </c>
+      <c r="AM24">
+        <v>1.172378920246888</v>
+      </c>
+      <c r="AN24">
+        <v>0.09554892559199264</v>
+      </c>
+      <c r="AO24">
+        <v>0.0005341615591947235</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0.002217420242646595</v>
+      </c>
+      <c r="AR24">
+        <v>-0.001149097124256926</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>-0.002274715145755224</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="BR24">
         <v>0.8966888452285828</v>
       </c>
-      <c r="BQ24">
+      <c r="BS24">
         <v>0.6776001383220681</v>
       </c>
-      <c r="BR24">
+      <c r="BT24">
         <v>1.115777552135098</v>
       </c>
-      <c r="BS24">
+      <c r="BU24">
         <v>0.006156710178576172</v>
       </c>
-      <c r="BT24">
+      <c r="BV24">
+        <v>1.042374972193937e-015</v>
+      </c>
+      <c r="BW24">
         <v>9</v>
       </c>
-      <c r="BU24">
+      <c r="BX24">
         <v>60</v>
       </c>
-      <c r="BV24">
-        <v>1</v>
-      </c>
-      <c r="BW24">
+      <c r="BY24">
+        <v>1</v>
+      </c>
+      <c r="BZ24">
         <v>11.11111111111111</v>
       </c>
-      <c r="BX24">
+      <c r="CA24">
         <v>0.9013562167141639</v>
       </c>
-      <c r="BY24">
+      <c r="CB24">
         <v>0.674747133346695</v>
       </c>
-      <c r="BZ24">
+      <c r="CC24">
         <v>1.127965300081633</v>
       </c>
-      <c r="CA24">
+      <c r="CD24">
         <v>0.009980111552470599</v>
       </c>
-      <c r="CB24">
+      <c r="CE24">
         <v>-0.004667371485581051</v>
       </c>
-      <c r="CC24">
-        <v>0</v>
-      </c>
-      <c r="CD24">
+      <c r="CF24">
+        <v>0</v>
+      </c>
+      <c r="CG24">
         <v>0.002853004975373108</v>
       </c>
-      <c r="CE24">
+      <c r="CH24">
         <v>-0.0121877479465351</v>
       </c>
-      <c r="CF24">
-        <v>0</v>
-      </c>
-      <c r="CG24">
+      <c r="CI24">
+        <v>0</v>
+      </c>
+      <c r="CJ24">
         <v>-0.003823401373894426</v>
       </c>
-      <c r="CH24">
-        <v>0</v>
+      <c r="CK24">
+        <v>0</v>
+      </c>
+      <c r="CL24">
+        <v>6.394214723386892e-015</v>
       </c>
     </row>
     <row r="25">
@@ -4680,21 +6097,21 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Stata</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>DL</t>
+        </is>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -4711,11 +6128,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -4724,74 +6145,131 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>1</v>
-      </c>
-      <c r="AB25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="inlineStr">
         <is>
           <t>1 . ("In order to account for dependencies in the data due to multiple treatment comparisons within one study, we divided the sample size among comparisons").</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP25">
+      <c r="AG25">
+        <v>-0.04316313168459036</v>
+      </c>
+      <c r="AH25">
+        <v>-0.2169434713780535</v>
+      </c>
+      <c r="AI25">
+        <v>0.1306172080088728</v>
+      </c>
+      <c r="AJ25">
+        <v>0.1415001469303451</v>
+      </c>
+      <c r="AK25">
+        <v>-0.04654158103882246</v>
+      </c>
+      <c r="AL25">
+        <v>-0.2121049453556998</v>
+      </c>
+      <c r="AM25">
+        <v>0.1190217832780549</v>
+      </c>
+      <c r="AN25">
+        <v>0.1116570129116917</v>
+      </c>
+      <c r="AO25">
+        <v>-0.003378449354232094</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0.00483852602235374</v>
+      </c>
+      <c r="AR25">
+        <v>0.01159542473081797</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0.02984313401865334</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
         <v>-0.01139270587354634</v>
       </c>
-      <c r="BQ25">
+      <c r="BS25">
         <v>-0.2897738573712971</v>
       </c>
-      <c r="BR25">
+      <c r="BT25">
         <v>0.2669884456242044</v>
       </c>
-      <c r="BS25">
+      <c r="BU25">
         <v>0.2385934521082227</v>
       </c>
-      <c r="BT25">
+      <c r="BV25">
+        <v>0.9360692626131397</v>
+      </c>
+      <c r="BW25">
         <v>16</v>
       </c>
-      <c r="BU25">
+      <c r="BX25">
         <v>55.17241379310345</v>
       </c>
-      <c r="BV25">
+      <c r="BY25">
         <v>5</v>
       </c>
-      <c r="BW25">
+      <c r="BZ25">
         <v>31.25</v>
       </c>
-      <c r="BX25">
+      <c r="CA25">
         <v>-0.01562065108315128</v>
       </c>
-      <c r="BY25">
+      <c r="CB25">
         <v>-0.2891247242031788</v>
       </c>
-      <c r="BZ25">
+      <c r="CC25">
         <v>0.2578834220368761</v>
       </c>
-      <c r="CA25">
+      <c r="CD25">
         <v>0.2100315986820081</v>
       </c>
-      <c r="CB25">
+      <c r="CE25">
         <v>-0.004227945209604948</v>
       </c>
-      <c r="CC25">
-        <v>0</v>
-      </c>
-      <c r="CD25">
+      <c r="CF25">
+        <v>0</v>
+      </c>
+      <c r="CG25">
         <v>0.000649133168118321</v>
       </c>
-      <c r="CE25">
+      <c r="CH25">
         <v>0.009105023587328232</v>
       </c>
-      <c r="CF25">
-        <v>0</v>
-      </c>
-      <c r="CG25">
+      <c r="CI25">
+        <v>0</v>
+      </c>
+      <c r="CJ25">
         <v>0.02856185342621456</v>
       </c>
-      <c r="CH25">
-        <v>0</v>
+      <c r="CK25">
+        <v>0</v>
+      </c>
+      <c r="CL25">
+        <v>0.9108713643388577</v>
       </c>
     </row>
     <row r="26">
@@ -4840,123 +6318,184 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26" t="inlineStr">
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>DL</t>
+        </is>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" t="inlineStr">
         <is>
           <t>Fail-safe N</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>Funnel plot</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>Egger's test</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>Trim and fill</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>1</v>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="inlineStr">
         <is>
           <t>1. Independence of results was ensured for all analyses. Thus, if a study reported results for more than one type of outcome measure of either anxiety or depressive symptom severity, an average ES across respective measures was calculated, so that only one result per study was used for each quantitative data synthesis.")</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>Contacting authors for unpublished data. Only trim and fill found 1 study to impute, all other publication bias tests did not find evidence for publication bias.</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP26">
+      <c r="AG26">
+        <v>0.3723015190662327</v>
+      </c>
+      <c r="AH26">
+        <v>0.2464116842736387</v>
+      </c>
+      <c r="AI26">
+        <v>0.4981913538588267</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0.3975915210936848</v>
+      </c>
+      <c r="AL26">
+        <v>0.2533373124917222</v>
+      </c>
+      <c r="AM26">
+        <v>0.5418457296956474</v>
+      </c>
+      <c r="AN26">
+        <v>0.007301802101383104</v>
+      </c>
+      <c r="AO26">
+        <v>-0.02529000202745207</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>-0.006925628218083513</v>
+      </c>
+      <c r="AR26">
+        <v>-0.04365437583682064</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>-0.007301802101383104</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
         <v>0.3641467486005151</v>
       </c>
-      <c r="BQ26">
+      <c r="BS26">
         <v>0.2372692815070285</v>
       </c>
-      <c r="BR26">
+      <c r="BT26">
         <v>0.4910242156940017</v>
       </c>
-      <c r="BS26">
-        <v>0</v>
-      </c>
-      <c r="BT26">
+      <c r="BU26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>1.85264534476616e-008</v>
+      </c>
+      <c r="BW26">
         <v>8</v>
       </c>
-      <c r="BU26">
+      <c r="BX26">
         <v>88.88888888888889</v>
       </c>
-      <c r="BV26">
+      <c r="BY26">
         <v>4</v>
       </c>
-      <c r="BW26">
+      <c r="BZ26">
         <v>50</v>
       </c>
-      <c r="BX26">
+      <c r="CA26">
         <v>0.3879896417203889</v>
       </c>
-      <c r="BY26">
+      <c r="CB26">
         <v>0.2417572180818357</v>
       </c>
-      <c r="BZ26">
+      <c r="CC26">
         <v>0.534222065358942</v>
       </c>
-      <c r="CA26">
+      <c r="CD26">
         <v>0.007556211299924736</v>
       </c>
-      <c r="CB26">
+      <c r="CE26">
         <v>-0.02384289311987375</v>
       </c>
-      <c r="CC26">
-        <v>0</v>
-      </c>
-      <c r="CD26">
+      <c r="CF26">
+        <v>0</v>
+      </c>
+      <c r="CG26">
         <v>-0.004487936574807117</v>
       </c>
-      <c r="CE26">
+      <c r="CH26">
         <v>-0.04319784966494034</v>
       </c>
-      <c r="CF26">
-        <v>0</v>
-      </c>
-      <c r="CG26">
+      <c r="CI26">
+        <v>0</v>
+      </c>
+      <c r="CJ26">
         <v>-0.007556211299924736</v>
       </c>
-      <c r="CH26">
-        <v>0</v>
+      <c r="CK26">
+        <v>0</v>
+      </c>
+      <c r="CL26">
+        <v>1.99016525221653e-007</v>
       </c>
     </row>
     <row r="27">
@@ -5005,43 +6544,47 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27" t="inlineStr">
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>SPSS</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" t="inlineStr">
         <is>
           <t>Funnel plot</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>Trim and fill</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
       <c r="Y27">
         <v>0</v>
       </c>
@@ -5049,79 +6592,136 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="inlineStr">
         <is>
           <t>1. ("Moreover, inclusion of multiple effect sizes within studies would violate the assumption of independent samples; even though the particular subsamples may have differed on a characteristic such as race, the data shared characteristics including method, experimental design, location, and setting. To overcome this issue, we averaged all effect sizes within each study (weighted by the number of participants included in each analysis) to compute an aggregate effect size for that particular study (Mullen, 1989).").</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>Separate analyses with published and unpublished effect sizes. Contacting authors for unpublished data</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP27">
+      <c r="AG27">
+        <v>0.178397224869094</v>
+      </c>
+      <c r="AH27">
+        <v>0.158849047135147</v>
+      </c>
+      <c r="AI27">
+        <v>0.197945402603041</v>
+      </c>
+      <c r="AJ27">
+        <v>0.01204141361590493</v>
+      </c>
+      <c r="AK27">
+        <v>0.1783795974816122</v>
+      </c>
+      <c r="AL27">
+        <v>0.1587625569638924</v>
+      </c>
+      <c r="AM27">
+        <v>0.1979966379993321</v>
+      </c>
+      <c r="AN27">
+        <v>0.01216638757461709</v>
+      </c>
+      <c r="AO27">
+        <v>1.762738748176118e-005</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>8.649017125461622e-005</v>
+      </c>
+      <c r="AR27">
+        <v>-5.123539629109386e-005</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>-0.0001249739587121657</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
         <v>0.245715797277975</v>
       </c>
-      <c r="BQ27">
+      <c r="BS27">
         <v>0.189056049055809</v>
       </c>
-      <c r="BR27">
+      <c r="BT27">
         <v>0.302375545500141</v>
       </c>
-      <c r="BS27">
+      <c r="BU27">
         <v>0.01274329932964601</v>
       </c>
-      <c r="BT27">
+      <c r="BV27">
+        <v>1.899873638192926e-017</v>
+      </c>
+      <c r="BW27">
         <v>21</v>
       </c>
-      <c r="BU27">
+      <c r="BX27">
         <v>11.41304347826087</v>
       </c>
-      <c r="BV27">
+      <c r="BY27">
         <v>14</v>
       </c>
-      <c r="BW27">
+      <c r="BZ27">
         <v>66.66666666666666</v>
       </c>
-      <c r="BX27">
+      <c r="CA27">
         <v>0.2460973855306017</v>
       </c>
-      <c r="BY27">
+      <c r="CB27">
         <v>0.1881592605470259</v>
       </c>
-      <c r="BZ27">
+      <c r="CC27">
         <v>0.3040355105141775</v>
       </c>
-      <c r="CA27">
+      <c r="CD27">
         <v>0.01352630331777505</v>
       </c>
-      <c r="CB27">
+      <c r="CE27">
         <v>-0.0003815882526267411</v>
       </c>
-      <c r="CC27">
-        <v>0</v>
-      </c>
-      <c r="CD27">
+      <c r="CF27">
+        <v>0</v>
+      </c>
+      <c r="CG27">
         <v>0.0008967885087830529</v>
       </c>
-      <c r="CE27">
+      <c r="CH27">
         <v>-0.001659965014036535</v>
       </c>
-      <c r="CF27">
-        <v>0</v>
-      </c>
-      <c r="CG27">
+      <c r="CI27">
+        <v>0</v>
+      </c>
+      <c r="CJ27">
         <v>-0.0007830039881290413</v>
       </c>
-      <c r="CH27">
-        <v>0</v>
+      <c r="CK27">
+        <v>0</v>
+      </c>
+      <c r="CL27">
+        <v>8.424127984830247e-017</v>
       </c>
     </row>
     <row r="28">
@@ -5170,21 +6770,21 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>SPSS</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5201,11 +6801,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -5214,79 +6818,136 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>1</v>
-      </c>
-      <c r="AB28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="inlineStr">
         <is>
           <t>1. ("Multiple-experiment studies were allowed to provide data points for each of the separate experiments, as long as the samples were independent. Further, correlation coefficients presented for separate age groups within the same study were treated as separate data points (see Hunter, Schmidt, &amp; Jackson, 1986). About half of the included samples (n   27) reported more than one correlation coefficient of the simple span–complex span relation (because they used several simple and/or complex span tasks; see note in Table 1). As recommended by Hunter et al. (1986), the correlation coefficients in these cases were averaged to yield a single effect size estimate for that sample.").</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>Author mentions publication bias but states she thinks it's not a problem because simple and complex span tasks are almost always significantly correlated with each other at all ages. No methods used to assess. Effect size: beta from Table 3.</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP28">
+      <c r="AG28">
+        <v>0.3770161723749347</v>
+      </c>
+      <c r="AH28">
+        <v>0.3279967152206605</v>
+      </c>
+      <c r="AI28">
+        <v>0.4260356295292089</v>
+      </c>
+      <c r="AJ28">
+        <v>0.01214767753584697</v>
+      </c>
+      <c r="AK28">
+        <v>0.3767302634130753</v>
+      </c>
+      <c r="AL28">
+        <v>0.3275281605689421</v>
+      </c>
+      <c r="AM28">
+        <v>0.4259323662572084</v>
+      </c>
+      <c r="AN28">
+        <v>0.01228776999754733</v>
+      </c>
+      <c r="AO28">
+        <v>0.0002859089618594268</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0.0004685546517184114</v>
+      </c>
+      <c r="AR28">
+        <v>0.0001032632720004423</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>-0.0001400924617003599</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
         <v>0.4004223738504465</v>
       </c>
-      <c r="BQ28">
+      <c r="BS28">
         <v>0.3302872144700778</v>
       </c>
-      <c r="BR28">
+      <c r="BT28">
         <v>0.4705575332308152</v>
       </c>
-      <c r="BS28">
+      <c r="BU28">
         <v>0.01782932340961232</v>
       </c>
-      <c r="BT28">
+      <c r="BV28">
+        <v>4.563604015276405e-029</v>
+      </c>
+      <c r="BW28">
         <v>19</v>
       </c>
-      <c r="BU28">
+      <c r="BX28">
         <v>63.33333333333333</v>
       </c>
-      <c r="BV28">
+      <c r="BY28">
         <v>14</v>
       </c>
-      <c r="BW28">
+      <c r="BZ28">
         <v>73.68421052631578</v>
       </c>
-      <c r="BX28">
+      <c r="CA28">
         <v>0.400029626051871</v>
       </c>
-      <c r="BY28">
+      <c r="CB28">
         <v>0.3295351500300334</v>
       </c>
-      <c r="BZ28">
+      <c r="CC28">
         <v>0.4705241020737086</v>
       </c>
-      <c r="CA28">
+      <c r="CD28">
         <v>0.01808579924554687</v>
       </c>
-      <c r="CB28">
+      <c r="CE28">
         <v>0.0003927477985755101</v>
       </c>
-      <c r="CC28">
-        <v>0</v>
-      </c>
-      <c r="CD28">
+      <c r="CF28">
+        <v>0</v>
+      </c>
+      <c r="CG28">
         <v>0.0007520644400443866</v>
       </c>
-      <c r="CE28">
+      <c r="CH28">
         <v>3.343115710663369e-005</v>
       </c>
-      <c r="CF28">
-        <v>0</v>
-      </c>
-      <c r="CG28">
+      <c r="CI28">
+        <v>0</v>
+      </c>
+      <c r="CJ28">
         <v>-0.0002564758359345498</v>
       </c>
-      <c r="CH28">
-        <v>0</v>
+      <c r="CK28">
+        <v>0</v>
+      </c>
+      <c r="CL28">
+        <v>9.798513331043141e-029</v>
       </c>
     </row>
     <row r="29">
@@ -5335,124 +6996,185 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>Egger's test</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>Trim and fill</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>Publication status used in meta-regression</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>1</v>
-      </c>
-      <c r="AB29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="inlineStr">
         <is>
           <t>1. ("To preserve independence assumptions as we calculated effect sizes, we combined measures from each sample that fell into the same dependent variable category.")</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>Contacting authors for unpublished data. Separate analyses with published and unpublished effect sizes. Outliers winsorized ("One outlier, which exceeded three standard deviations from the mean, was replaced with the next highest value (Lipsey_x000D_
 &amp; Wilson, 2001).").</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP29">
+      <c r="AG29">
+        <v>0.100026055789793</v>
+      </c>
+      <c r="AH29">
+        <v>0.0283542284793525</v>
+      </c>
+      <c r="AI29">
+        <v>0.1716978831002336</v>
+      </c>
+      <c r="AJ29">
+        <v>0.03310713979591434</v>
+      </c>
+      <c r="AK29">
+        <v>0.08759656348440288</v>
+      </c>
+      <c r="AL29">
+        <v>0.0183624362954519</v>
+      </c>
+      <c r="AM29">
+        <v>0.1568306906733539</v>
+      </c>
+      <c r="AN29">
+        <v>0.02874996362998256</v>
+      </c>
+      <c r="AO29">
+        <v>0.01242949230539016</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0.009991792183900602</v>
+      </c>
+      <c r="AR29">
+        <v>0.01486719242687973</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0.004357176165931776</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
         <v>0.1020674573144624</v>
       </c>
-      <c r="BQ29">
+      <c r="BS29">
         <v>-0.02389477985174487</v>
       </c>
-      <c r="BR29">
+      <c r="BT29">
         <v>0.2280296944806696</v>
       </c>
-      <c r="BS29">
+      <c r="BU29">
         <v>0.0651584045812388</v>
       </c>
-      <c r="BT29">
+      <c r="BV29">
+        <v>0.1122495286864697</v>
+      </c>
+      <c r="BW29">
         <v>20</v>
       </c>
-      <c r="BU29">
+      <c r="BX29">
         <v>54.05405405405406</v>
       </c>
-      <c r="BV29">
+      <c r="BY29">
         <v>6</v>
       </c>
-      <c r="BW29">
+      <c r="BZ29">
         <v>30</v>
       </c>
-      <c r="BX29">
+      <c r="CA29">
         <v>0.08220949156061003</v>
       </c>
-      <c r="BY29">
+      <c r="CB29">
         <v>-0.03810844383000103</v>
       </c>
-      <c r="BZ29">
+      <c r="CC29">
         <v>0.2025274269512211</v>
       </c>
-      <c r="CA29">
+      <c r="CD29">
         <v>0.05526749861105359</v>
       </c>
-      <c r="CB29">
+      <c r="CE29">
         <v>0.01985796575385232</v>
       </c>
-      <c r="CC29">
-        <v>0</v>
-      </c>
-      <c r="CD29">
+      <c r="CF29">
+        <v>0</v>
+      </c>
+      <c r="CG29">
         <v>-0.01421366397825616</v>
       </c>
-      <c r="CE29">
+      <c r="CH29">
         <v>0.02550226752944848</v>
       </c>
-      <c r="CF29">
-        <v>1</v>
-      </c>
-      <c r="CG29">
+      <c r="CI29">
+        <v>1</v>
+      </c>
+      <c r="CJ29">
         <v>0.009890905970185208</v>
       </c>
-      <c r="CH29">
-        <v>0</v>
+      <c r="CK29">
+        <v>0</v>
+      </c>
+      <c r="CL29">
+        <v>0.1805113515324409</v>
       </c>
     </row>
     <row r="30">
@@ -5504,21 +7226,21 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -5535,92 +7257,153 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>1</v>
-      </c>
-      <c r="AB30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>Separate analyses with published and unpublished effect sizes. Mentions independent samples ("Finally, we included only results based on independent samples.").</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP30">
+      <c r="AG30">
+        <v>0.2103791388692202</v>
+      </c>
+      <c r="AH30">
+        <v>0.1634943543055696</v>
+      </c>
+      <c r="AI30">
+        <v>0.2572639234328708</v>
+      </c>
+      <c r="AJ30">
+        <v>0.003926779373588089</v>
+      </c>
+      <c r="AK30">
+        <v>0.2129958218067675</v>
+      </c>
+      <c r="AL30">
+        <v>0.1672420292100166</v>
+      </c>
+      <c r="AM30">
+        <v>0.2587496144035185</v>
+      </c>
+      <c r="AN30">
+        <v>0.003549341046598833</v>
+      </c>
+      <c r="AO30">
+        <v>-0.002616682937547354</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>-0.003747674904447024</v>
+      </c>
+      <c r="AR30">
+        <v>-0.001485690970647713</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0.0003774383269892559</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="BR30">
         <v>0.1373424561305737</v>
       </c>
-      <c r="BQ30">
+      <c r="BS30">
         <v>0.05921254222973722</v>
       </c>
-      <c r="BR30">
+      <c r="BT30">
         <v>0.2154723700314102</v>
       </c>
-      <c r="BS30">
+      <c r="BU30">
         <v>0.006330427501697535</v>
       </c>
-      <c r="BT30">
+      <c r="BV30">
+        <v>0.0005702834389282293</v>
+      </c>
+      <c r="BW30">
         <v>10</v>
       </c>
-      <c r="BU30">
+      <c r="BX30">
         <v>58.82352941176471</v>
       </c>
-      <c r="BV30">
+      <c r="BY30">
         <v>9</v>
       </c>
-      <c r="BW30">
+      <c r="BZ30">
         <v>90</v>
       </c>
-      <c r="BX30">
+      <c r="CA30">
         <v>0.1417659109759833</v>
       </c>
-      <c r="BY30">
+      <c r="CB30">
         <v>0.06580801207647997</v>
       </c>
-      <c r="BZ30">
+      <c r="CC30">
         <v>0.2177238098754866</v>
       </c>
-      <c r="CA30">
+      <c r="CD30">
         <v>0.005528351448378167</v>
       </c>
-      <c r="CB30">
+      <c r="CE30">
         <v>-0.004423454845409569</v>
       </c>
-      <c r="CC30">
-        <v>0</v>
-      </c>
-      <c r="CD30">
+      <c r="CF30">
+        <v>0</v>
+      </c>
+      <c r="CG30">
         <v>-0.006595469846742752</v>
       </c>
-      <c r="CE30">
+      <c r="CH30">
         <v>-0.002251439844076386</v>
       </c>
-      <c r="CF30">
-        <v>0</v>
-      </c>
-      <c r="CG30">
+      <c r="CI30">
+        <v>0</v>
+      </c>
+      <c r="CJ30">
         <v>0.0008020760533193677</v>
       </c>
-      <c r="CH30">
-        <v>0</v>
+      <c r="CK30">
+        <v>0</v>
+      </c>
+      <c r="CL30">
+        <v>0.0002541638241584272</v>
       </c>
     </row>
     <row r="31">
@@ -5669,123 +7452,184 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="R31" t="inlineStr">
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>Funnel plot</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>Egger's test</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>Fail-safe N</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>1</v>
-      </c>
-      <c r="AB31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="inlineStr">
         <is>
           <t>1. ("Whenever multiple comparisons from one experiment led to the same participants being represented in more than one effect size, we adjusted the N for each group accordingly when calculating the standard error").</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t>Contacting authors for unpublished data</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="BP31">
+      <c r="AG31">
+        <v>0.6492177581088054</v>
+      </c>
+      <c r="AH31">
+        <v>0.4675703428322962</v>
+      </c>
+      <c r="AI31">
+        <v>0.8308651733853147</v>
+      </c>
+      <c r="AJ31">
+        <v>0.1738405043440016</v>
+      </c>
+      <c r="AK31">
+        <v>0.7454550142112318</v>
+      </c>
+      <c r="AL31">
+        <v>0.4823676648813013</v>
+      </c>
+      <c r="AM31">
+        <v>1.008542363541162</v>
+      </c>
+      <c r="AN31">
+        <v>0.2341082034485099</v>
+      </c>
+      <c r="AO31">
+        <v>-0.09623725610242639</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>-0.01479732204900519</v>
+      </c>
+      <c r="AR31">
+        <v>-0.1776771901558476</v>
+      </c>
+      <c r="AS31">
+        <v>2</v>
+      </c>
+      <c r="AT31">
+        <v>-0.0602676991045083</v>
+      </c>
+      <c r="AU31">
+        <v>1</v>
+      </c>
+      <c r="BR31">
         <v>0.7511603872358148</v>
       </c>
-      <c r="BQ31">
+      <c r="BS31">
         <v>0.4920877285797916</v>
       </c>
-      <c r="BR31">
+      <c r="BT31">
         <v>1.010233045891838</v>
       </c>
-      <c r="BS31">
+      <c r="BU31">
         <v>0.2472439410853111</v>
       </c>
-      <c r="BT31">
+      <c r="BV31">
+        <v>1.32539506033041e-008</v>
+      </c>
+      <c r="BW31">
         <v>20</v>
       </c>
-      <c r="BU31">
+      <c r="BX31">
         <v>64.51612903225806</v>
       </c>
-      <c r="BV31">
+      <c r="BY31">
         <v>7</v>
       </c>
-      <c r="BW31">
+      <c r="BZ31">
         <v>35</v>
       </c>
-      <c r="BX31">
+      <c r="CA31">
         <v>0.7363101960034751</v>
       </c>
-      <c r="BY31">
+      <c r="CB31">
         <v>0.4475578798361334</v>
       </c>
-      <c r="BZ31">
+      <c r="CC31">
         <v>1.025062512170817</v>
       </c>
-      <c r="CA31">
+      <c r="CD31">
         <v>0.3201467330206949</v>
       </c>
-      <c r="CB31">
+      <c r="CE31">
         <v>0.01485019123233966</v>
       </c>
-      <c r="CC31">
-        <v>0</v>
-      </c>
-      <c r="CD31">
+      <c r="CF31">
+        <v>0</v>
+      </c>
+      <c r="CG31">
         <v>0.04452984874365817</v>
       </c>
-      <c r="CE31">
+      <c r="CH31">
         <v>-0.01482946627897874</v>
       </c>
-      <c r="CF31">
-        <v>0</v>
-      </c>
-      <c r="CG31">
+      <c r="CI31">
+        <v>0</v>
+      </c>
+      <c r="CJ31">
         <v>-0.07290279193538379</v>
       </c>
-      <c r="CH31">
-        <v>1</v>
+      <c r="CK31">
+        <v>1</v>
+      </c>
+      <c r="CL31">
+        <v>5.797232083293125e-007</v>
       </c>
     </row>
     <row r="32">
@@ -5827,34 +7671,34 @@
         </is>
       </c>
       <c r="J32">
-        <v>-0.6472648470698691</v>
+        <v>-0.647264847069869</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
           <t>FE</t>
         </is>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32" t="inlineStr">
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" t="inlineStr">
         <is>
           <t>Fail-safe N</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="U32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5862,97 +7706,158 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="inlineStr">
         <is>
           <t>1. ("To ensure that effect sizes were independent, only one_x000D_
 publication and only one coding system was chosen for each_x000D_
 set of participants.")</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>Outliers winsorized to minimize the influence of outliers. Only published studies used.</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>Different</t>
         </is>
       </c>
-      <c r="BP32">
+      <c r="AG32">
+        <v>0.6410653536434148</v>
+      </c>
+      <c r="AH32">
+        <v>0.5703518516263181</v>
+      </c>
+      <c r="AI32">
+        <v>0.7117788556605115</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0.6625602662103102</v>
+      </c>
+      <c r="AL32">
+        <v>0.5918467984822748</v>
+      </c>
+      <c r="AM32">
+        <v>0.7332737339383455</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>-0.0214949125668954</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>-0.02149494685595677</v>
+      </c>
+      <c r="AR32">
+        <v>-0.02149487827783403</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="BR32">
         <v>0.6481691109060378</v>
       </c>
-      <c r="BQ32">
+      <c r="BS32">
         <v>0.5263045062213746</v>
       </c>
-      <c r="BR32">
+      <c r="BT32">
         <v>0.770033715590701</v>
       </c>
-      <c r="BS32">
-        <v>0</v>
-      </c>
-      <c r="BT32">
+      <c r="BU32">
+        <v>0</v>
+      </c>
+      <c r="BV32">
+        <v>1.914904299377971e-025</v>
+      </c>
+      <c r="BW32">
         <v>13</v>
       </c>
-      <c r="BU32">
+      <c r="BX32">
         <v>32.5</v>
       </c>
-      <c r="BV32">
+      <c r="BY32">
         <v>6</v>
       </c>
-      <c r="BW32">
+      <c r="BZ32">
         <v>46.15384615384615</v>
       </c>
-      <c r="BX32">
+      <c r="CA32">
         <v>0.7120079808242804</v>
       </c>
-      <c r="BY32">
+      <c r="CB32">
         <v>0.5901435516410586</v>
       </c>
-      <c r="BZ32">
+      <c r="CC32">
         <v>0.8338724100075022</v>
       </c>
-      <c r="CA32">
-        <v>0</v>
-      </c>
-      <c r="CB32">
+      <c r="CD32">
+        <v>0</v>
+      </c>
+      <c r="CE32">
         <v>-0.06383886991824261</v>
       </c>
-      <c r="CC32">
-        <v>1</v>
-      </c>
-      <c r="CD32">
+      <c r="CF32">
+        <v>1</v>
+      </c>
+      <c r="CG32">
         <v>-0.06383904541968399</v>
       </c>
-      <c r="CE32">
+      <c r="CH32">
         <v>-0.06383869441680123</v>
       </c>
-      <c r="CF32">
-        <v>1</v>
-      </c>
-      <c r="CG32">
-        <v>0</v>
-      </c>
-      <c r="CH32">
-        <v>0</v>
+      <c r="CI32">
+        <v>1</v>
+      </c>
+      <c r="CJ32">
+        <v>0</v>
+      </c>
+      <c r="CK32">
+        <v>0</v>
+      </c>
+      <c r="CL32">
+        <v>2.315605209567172e-030</v>
       </c>
     </row>
     <row r="33">
@@ -6001,21 +7906,21 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -6032,11 +7937,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -6047,77 +7956,134 @@
       <c r="AA33">
         <v>0</v>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AE33" t="inlineStr">
         <is>
           <t>Authors state a rho coefficient as overall estimate, but never mention transforming the correlations to rho, or anything related to reliability estimates. We interpreted these estimates as correlations.</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>Null</t>
         </is>
       </c>
-      <c r="BP33">
+      <c r="AG33">
+        <v>0.01591376851090601</v>
+      </c>
+      <c r="AH33">
+        <v>-0.06585695761896711</v>
+      </c>
+      <c r="AI33">
+        <v>0.09768449464077912</v>
+      </c>
+      <c r="AJ33">
+        <v>0.014882014021684</v>
+      </c>
+      <c r="AK33">
+        <v>0.01523652194346652</v>
+      </c>
+      <c r="AL33">
+        <v>-0.06854842401801824</v>
+      </c>
+      <c r="AM33">
+        <v>0.09902146790495127</v>
+      </c>
+      <c r="AN33">
+        <v>0.01556005157274684</v>
+      </c>
+      <c r="AO33">
+        <v>0.0006772465674394854</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>-0.002691466399051129</v>
+      </c>
+      <c r="AR33">
+        <v>-0.001336973264172148</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>-0.0006780375510628423</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="BR33">
         <v>0.1043698099637569</v>
       </c>
-      <c r="BQ33">
+      <c r="BS33">
         <v>-0.002208482040168491</v>
       </c>
-      <c r="BR33">
+      <c r="BT33">
         <v>0.2109481019676823</v>
       </c>
-      <c r="BS33">
+      <c r="BU33">
         <v>0.01205499911852401</v>
       </c>
-      <c r="BT33">
+      <c r="BV33">
+        <v>0.05494002589064859</v>
+      </c>
+      <c r="BW33">
         <v>6</v>
       </c>
-      <c r="BU33">
+      <c r="BX33">
         <v>50</v>
       </c>
-      <c r="BV33">
+      <c r="BY33">
         <v>4</v>
       </c>
-      <c r="BW33">
+      <c r="BZ33">
         <v>66.66666666666666</v>
       </c>
-      <c r="BX33">
+      <c r="CA33">
         <v>0.1062506349768996</v>
       </c>
-      <c r="BY33">
+      <c r="CB33">
         <v>-0.004618177502581075</v>
       </c>
-      <c r="BZ33">
+      <c r="CC33">
         <v>0.2171194474563802</v>
       </c>
-      <c r="CA33">
+      <c r="CD33">
         <v>0.01280752792799045</v>
       </c>
-      <c r="CB33">
+      <c r="CE33">
         <v>-0.00188082501314267</v>
       </c>
-      <c r="CC33">
-        <v>0</v>
-      </c>
-      <c r="CD33">
+      <c r="CF33">
+        <v>0</v>
+      </c>
+      <c r="CG33">
         <v>-0.002409695462412584</v>
       </c>
-      <c r="CE33">
+      <c r="CH33">
         <v>-0.00617134548869791</v>
       </c>
-      <c r="CF33">
-        <v>0</v>
-      </c>
-      <c r="CG33">
+      <c r="CI33">
+        <v>0</v>
+      </c>
+      <c r="CJ33">
         <v>-0.0007525288094664424</v>
       </c>
-      <c r="CH33">
-        <v>0</v>
+      <c r="CK33">
+        <v>0</v>
+      </c>
+      <c r="CL33">
+        <v>0.06033701983844891</v>
       </c>
     </row>
     <row r="34">
@@ -6166,21 +8132,21 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -6197,92 +8163,153 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>1</v>
-      </c>
-      <c r="AB34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="inlineStr">
         <is>
           <t>1. ("For example, when multiple relevant correlations were reported from the same sample (e.g., Wong, Tran, &amp; Lai, 2009), the average of the correlations was coded as the effect size."</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>One outlier removed: "This finding was contradictory to the findings of the other studies that indicated either nonsignificant or negative associations between the two variables. Thus, we conducted a new metaanalysis after excluding Obasi and Leong’s study".</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>Different</t>
         </is>
       </c>
-      <c r="BP34">
+      <c r="AG34">
+        <v>0.07029025142730881</v>
+      </c>
+      <c r="AH34">
+        <v>-0.0273785172071723</v>
+      </c>
+      <c r="AI34">
+        <v>0.1666296805339677</v>
+      </c>
+      <c r="AJ34">
+        <v>0.02179397912086811</v>
+      </c>
+      <c r="AK34">
+        <v>0.06995956855926525</v>
+      </c>
+      <c r="AL34">
+        <v>-0.02808077505402375</v>
+      </c>
+      <c r="AM34">
+        <v>0.1666667848502807</v>
+      </c>
+      <c r="AN34">
+        <v>0.02201189168175686</v>
+      </c>
+      <c r="AO34">
+        <v>0.0003306828680435664</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>-0.0007022578468514479</v>
+      </c>
+      <c r="AR34">
+        <v>-3.710431631295807e-005</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>-0.0002179125608887528</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="BR34">
         <v>0.06821606300624077</v>
       </c>
-      <c r="BQ34">
+      <c r="BS34">
         <v>-0.03258480909093028</v>
       </c>
-      <c r="BR34">
+      <c r="BT34">
         <v>0.167643173321367</v>
       </c>
-      <c r="BS34">
-        <v>0.0225781963279523</v>
-      </c>
-      <c r="BT34">
+      <c r="BU34">
+        <v>0.02258203410149158</v>
+      </c>
+      <c r="BV34">
+        <v>0.184541071953189</v>
+      </c>
+      <c r="BW34">
         <v>11</v>
       </c>
-      <c r="BU34">
+      <c r="BX34">
         <v>91.66666666666666</v>
       </c>
-      <c r="BV34">
+      <c r="BY34">
         <v>11</v>
       </c>
-      <c r="BW34">
+      <c r="BZ34">
         <v>100</v>
       </c>
-      <c r="BX34">
+      <c r="CA34">
         <v>0.06786174736907383</v>
       </c>
-      <c r="BY34">
+      <c r="CB34">
         <v>-0.03332370988898327</v>
       </c>
-      <c r="BZ34">
+      <c r="CC34">
         <v>0.1676701696782856</v>
       </c>
-      <c r="CA34">
-        <v>0.02279828131486043</v>
-      </c>
-      <c r="CB34">
+      <c r="CD34">
+        <v>0.02280223243774495</v>
+      </c>
+      <c r="CE34">
         <v>0.0003543156371669382</v>
       </c>
-      <c r="CC34">
-        <v>0</v>
-      </c>
-      <c r="CD34">
+      <c r="CF34">
+        <v>0</v>
+      </c>
+      <c r="CG34">
         <v>-0.0007389007980529924</v>
       </c>
-      <c r="CE34">
+      <c r="CH34">
         <v>-2.699635691860713e-005</v>
       </c>
-      <c r="CF34">
-        <v>0</v>
-      </c>
-      <c r="CG34">
-        <v>-0.000220084986908127</v>
-      </c>
-      <c r="CH34">
-        <v>0</v>
+      <c r="CI34">
+        <v>0</v>
+      </c>
+      <c r="CJ34">
+        <v>-0.0002201983362533702</v>
+      </c>
+      <c r="CK34">
+        <v>0</v>
+      </c>
+      <c r="CL34">
+        <v>0.1885137275649342</v>
       </c>
     </row>
   </sheetData>
